--- a/state_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
+++ b/state_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U158"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2474,13 +2474,13 @@
         <v>546</v>
       </c>
       <c r="G26" t="n">
-        <v>2096.60670583152</v>
+        <v>2138.82738890302</v>
       </c>
       <c r="H26" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I26" t="n">
-        <v>13026.62988</v>
+        <v>14165.53855</v>
       </c>
       <c r="J26" t="n">
         <v>50</v>
@@ -2495,7 +2495,7 @@
         <v>2291.9</v>
       </c>
       <c r="N26" t="n">
-        <v>12488.92326</v>
+        <v>13424.15532</v>
       </c>
       <c r="O26" t="n">
         <v>1792826.893</v>
@@ -2559,13 +2559,13 @@
         <v>546</v>
       </c>
       <c r="G27" t="n">
-        <v>2096.60670583152</v>
+        <v>2138.82738890302</v>
       </c>
       <c r="H27" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I27" t="n">
-        <v>13026.62988</v>
+        <v>14165.53855</v>
       </c>
       <c r="J27" t="n">
         <v>50</v>
@@ -2580,7 +2580,7 @@
         <v>2291.9</v>
       </c>
       <c r="N27" t="n">
-        <v>12488.92326</v>
+        <v>13424.15532</v>
       </c>
       <c r="O27" t="n">
         <v>1792826.893</v>
@@ -2644,13 +2644,13 @@
         <v>546</v>
       </c>
       <c r="G28" t="n">
-        <v>2096.60670583152</v>
+        <v>2138.82738890302</v>
       </c>
       <c r="H28" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I28" t="n">
-        <v>13026.62988</v>
+        <v>14165.53855</v>
       </c>
       <c r="J28" t="n">
         <v>50</v>
@@ -2665,7 +2665,7 @@
         <v>2291.9</v>
       </c>
       <c r="N28" t="n">
-        <v>12488.92326</v>
+        <v>13424.15532</v>
       </c>
       <c r="O28" t="n">
         <v>1792826.893</v>
@@ -2729,13 +2729,13 @@
         <v>546</v>
       </c>
       <c r="G29" t="n">
-        <v>2096.60670583152</v>
+        <v>2138.82738890302</v>
       </c>
       <c r="H29" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I29" t="n">
-        <v>13026.62988</v>
+        <v>14165.53855</v>
       </c>
       <c r="J29" t="n">
         <v>50</v>
@@ -2750,7 +2750,7 @@
         <v>2291.9</v>
       </c>
       <c r="N29" t="n">
-        <v>12488.92326</v>
+        <v>13424.15532</v>
       </c>
       <c r="O29" t="n">
         <v>1792826.893</v>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.00432</v>
+        <v>0.00438</v>
       </c>
       <c r="G31" t="n">
-        <v>0.008009468729772</v>
+        <v>0.008042304299948301</v>
       </c>
       <c r="H31" t="n">
         <v>0.0414980983564493</v>
@@ -2902,7 +2902,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.00394</v>
+        <v>0.00406</v>
       </c>
       <c r="M31" t="n">
         <v>0.01388</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00432</v>
+        <v>0.00438</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008009468729772</v>
+        <v>0.008042304299948301</v>
       </c>
       <c r="H32" t="n">
         <v>0.0414980983564493</v>
@@ -2983,7 +2983,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.00394</v>
+        <v>0.00406</v>
       </c>
       <c r="M32" t="n">
         <v>0.01388</v>
@@ -3993,13 +3993,13 @@
         <v>574</v>
       </c>
       <c r="G45" t="n">
-        <v>2041.57033973381</v>
+        <v>2075.96991653191</v>
       </c>
       <c r="H45" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I45" t="n">
-        <v>12600.76952</v>
+        <v>13966.54142</v>
       </c>
       <c r="J45" t="n">
         <v>51.9230769230769</v>
@@ -4014,7 +4014,7 @@
         <v>2847.98</v>
       </c>
       <c r="N45" t="n">
-        <v>11241.29707</v>
+        <v>11552.05164</v>
       </c>
       <c r="O45" t="n">
         <v>1792826.893</v>
@@ -4078,13 +4078,13 @@
         <v>574</v>
       </c>
       <c r="G46" t="n">
-        <v>2041.57033973381</v>
+        <v>2075.96991653191</v>
       </c>
       <c r="H46" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I46" t="n">
-        <v>12600.76952</v>
+        <v>13966.54142</v>
       </c>
       <c r="J46" t="n">
         <v>51.9230769230769</v>
@@ -4099,7 +4099,7 @@
         <v>2847.98</v>
       </c>
       <c r="N46" t="n">
-        <v>11241.29707</v>
+        <v>11552.05164</v>
       </c>
       <c r="O46" t="n">
         <v>1792826.893</v>
@@ -4163,13 +4163,13 @@
         <v>574</v>
       </c>
       <c r="G47" t="n">
-        <v>2041.57033973381</v>
+        <v>2075.96991653191</v>
       </c>
       <c r="H47" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I47" t="n">
-        <v>12600.76952</v>
+        <v>13966.54142</v>
       </c>
       <c r="J47" t="n">
         <v>51.9230769230769</v>
@@ -4184,7 +4184,7 @@
         <v>2847.98</v>
       </c>
       <c r="N47" t="n">
-        <v>11241.29707</v>
+        <v>11552.05164</v>
       </c>
       <c r="O47" t="n">
         <v>1792826.893</v>
@@ -4248,13 +4248,13 @@
         <v>574</v>
       </c>
       <c r="G48" t="n">
-        <v>2041.57033973381</v>
+        <v>2075.96991653191</v>
       </c>
       <c r="H48" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I48" t="n">
-        <v>12600.76952</v>
+        <v>13966.54142</v>
       </c>
       <c r="J48" t="n">
         <v>51.9230769230769</v>
@@ -4269,7 +4269,7 @@
         <v>2847.98</v>
       </c>
       <c r="N48" t="n">
-        <v>11241.29707</v>
+        <v>11552.05164</v>
       </c>
       <c r="O48" t="n">
         <v>1792826.893</v>
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00478</v>
+        <v>0.00493</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0084813548477437</v>
+        <v>0.0085102790327761</v>
       </c>
       <c r="H50" t="n">
         <v>0.0414980983564493</v>
@@ -4421,7 +4421,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.00419</v>
+        <v>0.00432</v>
       </c>
       <c r="M50" t="n">
         <v>0.01382</v>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00478</v>
+        <v>0.00493</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0084813548477437</v>
+        <v>0.0085102790327761</v>
       </c>
       <c r="H51" t="n">
         <v>0.0414980983564493</v>
@@ -4502,7 +4502,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.00419</v>
+        <v>0.00432</v>
       </c>
       <c r="M51" t="n">
         <v>0.01382</v>
@@ -5350,7 +5350,7 @@
         <v>0.6225000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9381299549023741</v>
+        <v>0.938051310979893</v>
       </c>
       <c r="H62" t="n">
         <v>3.2</v>
@@ -5593,13 +5593,13 @@
         <v>489</v>
       </c>
       <c r="G65" t="n">
-        <v>2169.11864396951</v>
+        <v>2176.39981781273</v>
       </c>
       <c r="H65" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I65" t="n">
-        <v>12554.16691</v>
+        <v>13740.54722</v>
       </c>
       <c r="J65" t="n">
         <v>47.3684210526316</v>
@@ -5614,7 +5614,7 @@
         <v>2672</v>
       </c>
       <c r="N65" t="n">
-        <v>12044.3148</v>
+        <v>10719.5539</v>
       </c>
       <c r="O65" t="n">
         <v>1792826.893</v>
@@ -5678,13 +5678,13 @@
         <v>489</v>
       </c>
       <c r="G66" t="n">
-        <v>2169.11864396951</v>
+        <v>2176.39981781273</v>
       </c>
       <c r="H66" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I66" t="n">
-        <v>12554.16691</v>
+        <v>13740.54722</v>
       </c>
       <c r="J66" t="n">
         <v>47.3684210526316</v>
@@ -5699,7 +5699,7 @@
         <v>2672</v>
       </c>
       <c r="N66" t="n">
-        <v>12044.3148</v>
+        <v>10719.5539</v>
       </c>
       <c r="O66" t="n">
         <v>1792826.893</v>
@@ -5763,13 +5763,13 @@
         <v>489</v>
       </c>
       <c r="G67" t="n">
-        <v>2169.11864396951</v>
+        <v>2176.39981781273</v>
       </c>
       <c r="H67" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I67" t="n">
-        <v>12554.16691</v>
+        <v>13740.54722</v>
       </c>
       <c r="J67" t="n">
         <v>47.3684210526316</v>
@@ -5784,7 +5784,7 @@
         <v>2672</v>
       </c>
       <c r="N67" t="n">
-        <v>12044.3148</v>
+        <v>10719.5539</v>
       </c>
       <c r="O67" t="n">
         <v>1792826.893</v>
@@ -5848,13 +5848,13 @@
         <v>489</v>
       </c>
       <c r="G68" t="n">
-        <v>2169.11864396951</v>
+        <v>2176.39981781273</v>
       </c>
       <c r="H68" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I68" t="n">
-        <v>12554.16691</v>
+        <v>13740.54722</v>
       </c>
       <c r="J68" t="n">
         <v>47.3684210526316</v>
@@ -5869,7 +5869,7 @@
         <v>2672</v>
       </c>
       <c r="N68" t="n">
-        <v>12044.3148</v>
+        <v>10719.5539</v>
       </c>
       <c r="O68" t="n">
         <v>1792826.893</v>
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.00685</v>
+        <v>0.00695</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0097168468754636</v>
+        <v>0.009742672040671099</v>
       </c>
       <c r="H70" t="n">
         <v>0.0414980983564493</v>
@@ -6021,7 +6021,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00453</v>
+        <v>0.0046</v>
       </c>
       <c r="M70" t="n">
         <v>0.01643</v>
@@ -6088,10 +6088,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.00685</v>
+        <v>0.00695</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0097168468754636</v>
+        <v>0.009742672040671099</v>
       </c>
       <c r="H71" t="n">
         <v>0.0414980983564493</v>
@@ -6102,7 +6102,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.00453</v>
+        <v>0.0046</v>
       </c>
       <c r="M71" t="n">
         <v>0.01643</v>
@@ -6950,7 +6950,7 @@
         <v>0.471</v>
       </c>
       <c r="G82" t="n">
-        <v>0.71289619926517</v>
+        <v>0.71280772485238</v>
       </c>
       <c r="H82" t="n">
         <v>3.2</v>
@@ -7193,13 +7193,13 @@
         <v>330</v>
       </c>
       <c r="G85" t="n">
-        <v>2375.33525412525</v>
+        <v>2383.63579230651</v>
       </c>
       <c r="H85" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I85" t="n">
-        <v>12619.41057</v>
+        <v>14056.93911</v>
       </c>
       <c r="J85" t="n">
         <v>44</v>
@@ -7214,7 +7214,7 @@
         <v>3300</v>
       </c>
       <c r="N85" t="n">
-        <v>12283.87849</v>
+        <v>11940.15119</v>
       </c>
       <c r="O85" t="n">
         <v>1792826.893</v>
@@ -7278,13 +7278,13 @@
         <v>330</v>
       </c>
       <c r="G86" t="n">
-        <v>2375.33525412525</v>
+        <v>2383.63579230651</v>
       </c>
       <c r="H86" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I86" t="n">
-        <v>12619.41057</v>
+        <v>14056.93911</v>
       </c>
       <c r="J86" t="n">
         <v>44</v>
@@ -7299,7 +7299,7 @@
         <v>3300</v>
       </c>
       <c r="N86" t="n">
-        <v>12283.87849</v>
+        <v>11940.15119</v>
       </c>
       <c r="O86" t="n">
         <v>1792826.893</v>
@@ -7363,13 +7363,13 @@
         <v>330</v>
       </c>
       <c r="G87" t="n">
-        <v>2375.33525412525</v>
+        <v>2383.63579230651</v>
       </c>
       <c r="H87" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I87" t="n">
-        <v>12619.41057</v>
+        <v>14056.93911</v>
       </c>
       <c r="J87" t="n">
         <v>44</v>
@@ -7384,7 +7384,7 @@
         <v>3300</v>
       </c>
       <c r="N87" t="n">
-        <v>12283.87849</v>
+        <v>11940.15119</v>
       </c>
       <c r="O87" t="n">
         <v>1792826.893</v>
@@ -7448,13 +7448,13 @@
         <v>330</v>
       </c>
       <c r="G88" t="n">
-        <v>2375.33525412525</v>
+        <v>2383.63579230651</v>
       </c>
       <c r="H88" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I88" t="n">
-        <v>12619.41057</v>
+        <v>14056.93911</v>
       </c>
       <c r="J88" t="n">
         <v>44</v>
@@ -7469,7 +7469,7 @@
         <v>3300</v>
       </c>
       <c r="N88" t="n">
-        <v>12283.87849</v>
+        <v>11940.15119</v>
       </c>
       <c r="O88" t="n">
         <v>1792826.893</v>
@@ -7610,7 +7610,7 @@
         <v>0.00793</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0110273527625488</v>
+        <v>0.0110585550558811</v>
       </c>
       <c r="H90" t="n">
         <v>0.0414980983564493</v>
@@ -7621,7 +7621,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00454</v>
+        <v>0.00469</v>
       </c>
       <c r="M90" t="n">
         <v>0.0177</v>
@@ -7691,7 +7691,7 @@
         <v>0.00793</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0110273527625488</v>
+        <v>0.0110585550558811</v>
       </c>
       <c r="H91" t="n">
         <v>0.0414980983564493</v>
@@ -7702,7 +7702,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.00454</v>
+        <v>0.00469</v>
       </c>
       <c r="M91" t="n">
         <v>0.0177</v>
@@ -8550,7 +8550,7 @@
         <v>0.46</v>
       </c>
       <c r="G102" t="n">
-        <v>0.619907732680152</v>
+        <v>0.619829088757671</v>
       </c>
       <c r="H102" t="n">
         <v>2.1</v>
@@ -8793,13 +8793,13 @@
         <v>305</v>
       </c>
       <c r="G105" t="n">
-        <v>2434.37005638047</v>
+        <v>2443.01645031928</v>
       </c>
       <c r="H105" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I105" t="n">
-        <v>12700.85443</v>
+        <v>14078.65899</v>
       </c>
       <c r="J105" t="n">
         <v>35.4166666666667</v>
@@ -8814,7 +8814,7 @@
         <v>3300</v>
       </c>
       <c r="N105" t="n">
-        <v>12331.59741</v>
+        <v>12328.25074</v>
       </c>
       <c r="O105" t="n">
         <v>1792826.893</v>
@@ -8878,13 +8878,13 @@
         <v>305</v>
       </c>
       <c r="G106" t="n">
-        <v>2434.37005638047</v>
+        <v>2443.01645031928</v>
       </c>
       <c r="H106" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I106" t="n">
-        <v>12700.85443</v>
+        <v>14078.65899</v>
       </c>
       <c r="J106" t="n">
         <v>35.4166666666667</v>
@@ -8899,7 +8899,7 @@
         <v>3300</v>
       </c>
       <c r="N106" t="n">
-        <v>12331.59741</v>
+        <v>12328.25074</v>
       </c>
       <c r="O106" t="n">
         <v>1792826.893</v>
@@ -8963,13 +8963,13 @@
         <v>305</v>
       </c>
       <c r="G107" t="n">
-        <v>2434.37005638047</v>
+        <v>2443.01645031928</v>
       </c>
       <c r="H107" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I107" t="n">
-        <v>12700.85443</v>
+        <v>14078.65899</v>
       </c>
       <c r="J107" t="n">
         <v>35.4166666666667</v>
@@ -8984,7 +8984,7 @@
         <v>3300</v>
       </c>
       <c r="N107" t="n">
-        <v>12331.59741</v>
+        <v>12328.25074</v>
       </c>
       <c r="O107" t="n">
         <v>1792826.893</v>
@@ -9048,13 +9048,13 @@
         <v>305</v>
       </c>
       <c r="G108" t="n">
-        <v>2434.37005638047</v>
+        <v>2443.01645031928</v>
       </c>
       <c r="H108" t="n">
-        <v>20311.0083473196</v>
+        <v>19002.0561806033</v>
       </c>
       <c r="I108" t="n">
-        <v>12700.85443</v>
+        <v>14078.65899</v>
       </c>
       <c r="J108" t="n">
         <v>35.4166666666667</v>
@@ -9069,7 +9069,7 @@
         <v>3300</v>
       </c>
       <c r="N108" t="n">
-        <v>12331.59741</v>
+        <v>12328.25074</v>
       </c>
       <c r="O108" t="n">
         <v>1792826.893</v>
@@ -9210,7 +9210,7 @@
         <v>0.01046</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0123972368914415</v>
+        <v>0.0124253646516823</v>
       </c>
       <c r="H110" t="n">
         <v>0.0414980983564493</v>
@@ -9291,7 +9291,7 @@
         <v>0.01046</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0123972368914415</v>
+        <v>0.0124253646516823</v>
       </c>
       <c r="H111" t="n">
         <v>0.0414980983564493</v>
@@ -10312,13 +10312,13 @@
         <v>290</v>
       </c>
       <c r="G124" t="n">
-        <v>1186.88530152087</v>
+        <v>1160.3477929001</v>
       </c>
       <c r="H124" t="n">
-        <v>12134.756842791</v>
+        <v>10727.3401035386</v>
       </c>
       <c r="I124" t="n">
-        <v>9799.35232</v>
+        <v>9943.46256</v>
       </c>
       <c r="J124" t="n">
         <v>27.0833333333333</v>
@@ -10397,13 +10397,13 @@
         <v>290</v>
       </c>
       <c r="G125" t="n">
-        <v>1186.88530152087</v>
+        <v>1160.3477929001</v>
       </c>
       <c r="H125" t="n">
-        <v>12134.756842791</v>
+        <v>10727.3401035386</v>
       </c>
       <c r="I125" t="n">
-        <v>9799.35232</v>
+        <v>9943.46256</v>
       </c>
       <c r="J125" t="n">
         <v>27.0833333333333</v>
@@ -10482,13 +10482,13 @@
         <v>290</v>
       </c>
       <c r="G126" t="n">
-        <v>1186.88530152087</v>
+        <v>1160.3477929001</v>
       </c>
       <c r="H126" t="n">
-        <v>12134.756842791</v>
+        <v>10727.3401035386</v>
       </c>
       <c r="I126" t="n">
-        <v>9799.35232</v>
+        <v>9943.46256</v>
       </c>
       <c r="J126" t="n">
         <v>27.0833333333333</v>
@@ -10567,13 +10567,13 @@
         <v>290</v>
       </c>
       <c r="G127" t="n">
-        <v>1186.88530152087</v>
+        <v>1160.3477929001</v>
       </c>
       <c r="H127" t="n">
-        <v>12134.756842791</v>
+        <v>10727.3401035386</v>
       </c>
       <c r="I127" t="n">
-        <v>9799.35232</v>
+        <v>9943.46256</v>
       </c>
       <c r="J127" t="n">
         <v>27.0833333333333</v>
@@ -10729,7 +10729,7 @@
         <v>0.01184</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0135685065194966</v>
+        <v>0.0135754479194948</v>
       </c>
       <c r="H129" t="n">
         <v>0.0348529290240702</v>
@@ -10810,7 +10810,7 @@
         <v>0.01184</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0135685065194966</v>
+        <v>0.0135754479194948</v>
       </c>
       <c r="H130" t="n">
         <v>0.0348529290240702</v>
@@ -11831,13 +11831,13 @@
         <v>290</v>
       </c>
       <c r="G143" t="n">
-        <v>863.502188335503</v>
+        <v>834.882374076378</v>
       </c>
       <c r="H143" t="n">
-        <v>12134.756842791</v>
+        <v>10597.5699940605</v>
       </c>
       <c r="I143" t="n">
-        <v>3040.73482</v>
+        <v>3057.0784</v>
       </c>
       <c r="J143" t="n">
         <v>20.8333333333333</v>
@@ -11916,13 +11916,13 @@
         <v>290</v>
       </c>
       <c r="G144" t="n">
-        <v>863.502188335503</v>
+        <v>834.882374076378</v>
       </c>
       <c r="H144" t="n">
-        <v>12134.756842791</v>
+        <v>10597.5699940605</v>
       </c>
       <c r="I144" t="n">
-        <v>3040.73482</v>
+        <v>3057.0784</v>
       </c>
       <c r="J144" t="n">
         <v>20.8333333333333</v>
@@ -12001,13 +12001,13 @@
         <v>290</v>
       </c>
       <c r="G145" t="n">
-        <v>863.502188335503</v>
+        <v>834.882374076378</v>
       </c>
       <c r="H145" t="n">
-        <v>12134.756842791</v>
+        <v>10597.5699940605</v>
       </c>
       <c r="I145" t="n">
-        <v>3040.73482</v>
+        <v>3057.0784</v>
       </c>
       <c r="J145" t="n">
         <v>20.8333333333333</v>
@@ -12086,13 +12086,13 @@
         <v>290</v>
       </c>
       <c r="G146" t="n">
-        <v>863.502188335503</v>
+        <v>834.882374076378</v>
       </c>
       <c r="H146" t="n">
-        <v>12134.756842791</v>
+        <v>10597.5699940605</v>
       </c>
       <c r="I146" t="n">
-        <v>3040.73482</v>
+        <v>3057.0784</v>
       </c>
       <c r="J146" t="n">
         <v>20.8333333333333</v>
@@ -12248,7 +12248,7 @@
         <v>0.0146</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0152525196337972</v>
+        <v>0.0152550508652415</v>
       </c>
       <c r="H148" t="n">
         <v>0.0348529290240702</v>
@@ -12329,7 +12329,7 @@
         <v>0.0146</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0152525196337972</v>
+        <v>0.0152550508652415</v>
       </c>
       <c r="H149" t="n">
         <v>0.0348529290240702</v>
@@ -13081,6 +13081,1525 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.18365</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P159" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.03566</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P160" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.03566</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P161" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>330</v>
+      </c>
+      <c r="G162" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J162" t="n">
+        <v>26</v>
+      </c>
+      <c r="K162" t="n">
+        <v>60</v>
+      </c>
+      <c r="L162" t="n">
+        <v>355</v>
+      </c>
+      <c r="M162" t="n">
+        <v>800</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1688</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P162" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>330</v>
+      </c>
+      <c r="G163" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J163" t="n">
+        <v>26</v>
+      </c>
+      <c r="K163" t="n">
+        <v>60</v>
+      </c>
+      <c r="L163" t="n">
+        <v>355</v>
+      </c>
+      <c r="M163" t="n">
+        <v>800</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1688</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P163" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>330</v>
+      </c>
+      <c r="G164" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J164" t="n">
+        <v>26</v>
+      </c>
+      <c r="K164" t="n">
+        <v>60</v>
+      </c>
+      <c r="L164" t="n">
+        <v>355</v>
+      </c>
+      <c r="M164" t="n">
+        <v>800</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1688</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>330</v>
+      </c>
+      <c r="G165" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>6932</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J165" t="n">
+        <v>26</v>
+      </c>
+      <c r="K165" t="n">
+        <v>60</v>
+      </c>
+      <c r="L165" t="n">
+        <v>355</v>
+      </c>
+      <c r="M165" t="n">
+        <v>800</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1688</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P165" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>77</v>
+      </c>
+      <c r="G166" t="n">
+        <v>79.672</v>
+      </c>
+      <c r="H166" t="n">
+        <v>86</v>
+      </c>
+      <c r="I166" t="n">
+        <v>86</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>77</v>
+      </c>
+      <c r="M166" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="N166" t="n">
+        <v>86</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.0164582162966661</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.0668824230049385</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.03285</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.01046</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.02405</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.02901</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0164582162966661</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.0668824230049385</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.03285</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0.01046</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.02405</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.02901</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.1656</v>
+      </c>
+      <c r="H169" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="I169" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="M169" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="N169" t="n">
+        <v>6.555</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5.1656</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="I170" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="M170" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="N170" t="n">
+        <v>6.555</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4.1334</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>4.2526</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>5.472</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.2208</v>
+      </c>
+      <c r="H172" t="n">
+        <v>7.527</v>
+      </c>
+      <c r="I172" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>5.447</v>
+      </c>
+      <c r="M172" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="N172" t="n">
+        <v>6.6195</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>5.472</v>
+      </c>
+      <c r="G173" t="n">
+        <v>5.2208</v>
+      </c>
+      <c r="H173" t="n">
+        <v>7.527</v>
+      </c>
+      <c r="I173" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>5.447</v>
+      </c>
+      <c r="M173" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="N173" t="n">
+        <v>6.6195</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5.4378</v>
+      </c>
+      <c r="H174" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M174" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="N174" t="n">
+        <v>6.595</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.4378</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M175" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="N175" t="n">
+        <v>6.595</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.07332</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Patiki Stream at Kawiu Road</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.07332</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1792826.893</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
+++ b/state_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
@@ -2474,13 +2474,13 @@
         <v>546</v>
       </c>
       <c r="G26" t="n">
-        <v>2138.82738890302</v>
+        <v>1960.69160132947</v>
       </c>
       <c r="H26" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I26" t="n">
-        <v>14165.53855</v>
+        <v>13566.82198</v>
       </c>
       <c r="J26" t="n">
         <v>50</v>
@@ -2495,7 +2495,7 @@
         <v>2291.9</v>
       </c>
       <c r="N26" t="n">
-        <v>13424.15532</v>
+        <v>10586.73837</v>
       </c>
       <c r="O26" t="n">
         <v>1792826.893</v>
@@ -2559,13 +2559,13 @@
         <v>546</v>
       </c>
       <c r="G27" t="n">
-        <v>2138.82738890302</v>
+        <v>1960.69160132947</v>
       </c>
       <c r="H27" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I27" t="n">
-        <v>14165.53855</v>
+        <v>13566.82198</v>
       </c>
       <c r="J27" t="n">
         <v>50</v>
@@ -2580,7 +2580,7 @@
         <v>2291.9</v>
       </c>
       <c r="N27" t="n">
-        <v>13424.15532</v>
+        <v>10586.73837</v>
       </c>
       <c r="O27" t="n">
         <v>1792826.893</v>
@@ -2644,13 +2644,13 @@
         <v>546</v>
       </c>
       <c r="G28" t="n">
-        <v>2138.82738890302</v>
+        <v>1960.69160132947</v>
       </c>
       <c r="H28" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I28" t="n">
-        <v>14165.53855</v>
+        <v>13566.82198</v>
       </c>
       <c r="J28" t="n">
         <v>50</v>
@@ -2665,7 +2665,7 @@
         <v>2291.9</v>
       </c>
       <c r="N28" t="n">
-        <v>13424.15532</v>
+        <v>10586.73837</v>
       </c>
       <c r="O28" t="n">
         <v>1792826.893</v>
@@ -2729,13 +2729,13 @@
         <v>546</v>
       </c>
       <c r="G29" t="n">
-        <v>2138.82738890302</v>
+        <v>1960.69160132947</v>
       </c>
       <c r="H29" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I29" t="n">
-        <v>14165.53855</v>
+        <v>13566.82198</v>
       </c>
       <c r="J29" t="n">
         <v>50</v>
@@ -2750,7 +2750,7 @@
         <v>2291.9</v>
       </c>
       <c r="N29" t="n">
-        <v>13424.15532</v>
+        <v>10586.73837</v>
       </c>
       <c r="O29" t="n">
         <v>1792826.893</v>
@@ -3993,13 +3993,13 @@
         <v>574</v>
       </c>
       <c r="G45" t="n">
-        <v>2075.96991653191</v>
+        <v>1921.9252566896</v>
       </c>
       <c r="H45" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I45" t="n">
-        <v>13966.54142</v>
+        <v>12075.31652</v>
       </c>
       <c r="J45" t="n">
         <v>51.9230769230769</v>
@@ -4014,7 +4014,7 @@
         <v>2847.98</v>
       </c>
       <c r="N45" t="n">
-        <v>11552.05164</v>
+        <v>9842.44929</v>
       </c>
       <c r="O45" t="n">
         <v>1792826.893</v>
@@ -4078,13 +4078,13 @@
         <v>574</v>
       </c>
       <c r="G46" t="n">
-        <v>2075.96991653191</v>
+        <v>1921.9252566896</v>
       </c>
       <c r="H46" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I46" t="n">
-        <v>13966.54142</v>
+        <v>12075.31652</v>
       </c>
       <c r="J46" t="n">
         <v>51.9230769230769</v>
@@ -4099,7 +4099,7 @@
         <v>2847.98</v>
       </c>
       <c r="N46" t="n">
-        <v>11552.05164</v>
+        <v>9842.44929</v>
       </c>
       <c r="O46" t="n">
         <v>1792826.893</v>
@@ -4163,13 +4163,13 @@
         <v>574</v>
       </c>
       <c r="G47" t="n">
-        <v>2075.96991653191</v>
+        <v>1921.9252566896</v>
       </c>
       <c r="H47" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I47" t="n">
-        <v>13966.54142</v>
+        <v>12075.31652</v>
       </c>
       <c r="J47" t="n">
         <v>51.9230769230769</v>
@@ -4184,7 +4184,7 @@
         <v>2847.98</v>
       </c>
       <c r="N47" t="n">
-        <v>11552.05164</v>
+        <v>9842.44929</v>
       </c>
       <c r="O47" t="n">
         <v>1792826.893</v>
@@ -4248,13 +4248,13 @@
         <v>574</v>
       </c>
       <c r="G48" t="n">
-        <v>2075.96991653191</v>
+        <v>1921.9252566896</v>
       </c>
       <c r="H48" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I48" t="n">
-        <v>13966.54142</v>
+        <v>12075.31652</v>
       </c>
       <c r="J48" t="n">
         <v>51.9230769230769</v>
@@ -4269,7 +4269,7 @@
         <v>2847.98</v>
       </c>
       <c r="N48" t="n">
-        <v>11552.05164</v>
+        <v>9842.44929</v>
       </c>
       <c r="O48" t="n">
         <v>1792826.893</v>
@@ -5593,13 +5593,13 @@
         <v>489</v>
       </c>
       <c r="G65" t="n">
-        <v>2176.39981781273</v>
+        <v>2200.43328708831</v>
       </c>
       <c r="H65" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I65" t="n">
-        <v>13740.54722</v>
+        <v>14664.47416</v>
       </c>
       <c r="J65" t="n">
         <v>47.3684210526316</v>
@@ -5614,7 +5614,7 @@
         <v>2672</v>
       </c>
       <c r="N65" t="n">
-        <v>10719.5539</v>
+        <v>12174.55506</v>
       </c>
       <c r="O65" t="n">
         <v>1792826.893</v>
@@ -5678,13 +5678,13 @@
         <v>489</v>
       </c>
       <c r="G66" t="n">
-        <v>2176.39981781273</v>
+        <v>2200.43328708831</v>
       </c>
       <c r="H66" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I66" t="n">
-        <v>13740.54722</v>
+        <v>14664.47416</v>
       </c>
       <c r="J66" t="n">
         <v>47.3684210526316</v>
@@ -5699,7 +5699,7 @@
         <v>2672</v>
       </c>
       <c r="N66" t="n">
-        <v>10719.5539</v>
+        <v>12174.55506</v>
       </c>
       <c r="O66" t="n">
         <v>1792826.893</v>
@@ -5763,13 +5763,13 @@
         <v>489</v>
       </c>
       <c r="G67" t="n">
-        <v>2176.39981781273</v>
+        <v>2200.43328708831</v>
       </c>
       <c r="H67" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I67" t="n">
-        <v>13740.54722</v>
+        <v>14664.47416</v>
       </c>
       <c r="J67" t="n">
         <v>47.3684210526316</v>
@@ -5784,7 +5784,7 @@
         <v>2672</v>
       </c>
       <c r="N67" t="n">
-        <v>10719.5539</v>
+        <v>12174.55506</v>
       </c>
       <c r="O67" t="n">
         <v>1792826.893</v>
@@ -5848,13 +5848,13 @@
         <v>489</v>
       </c>
       <c r="G68" t="n">
-        <v>2176.39981781273</v>
+        <v>2200.43328708831</v>
       </c>
       <c r="H68" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I68" t="n">
-        <v>13740.54722</v>
+        <v>14664.47416</v>
       </c>
       <c r="J68" t="n">
         <v>47.3684210526316</v>
@@ -5869,7 +5869,7 @@
         <v>2672</v>
       </c>
       <c r="N68" t="n">
-        <v>10719.5539</v>
+        <v>12174.55506</v>
       </c>
       <c r="O68" t="n">
         <v>1792826.893</v>
@@ -7193,13 +7193,13 @@
         <v>330</v>
       </c>
       <c r="G85" t="n">
-        <v>2383.63579230651</v>
+        <v>2411.03394728067</v>
       </c>
       <c r="H85" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I85" t="n">
-        <v>14056.93911</v>
+        <v>14810.23109</v>
       </c>
       <c r="J85" t="n">
         <v>44</v>
@@ -7214,7 +7214,7 @@
         <v>3300</v>
       </c>
       <c r="N85" t="n">
-        <v>11940.15119</v>
+        <v>13358.5978</v>
       </c>
       <c r="O85" t="n">
         <v>1792826.893</v>
@@ -7278,13 +7278,13 @@
         <v>330</v>
       </c>
       <c r="G86" t="n">
-        <v>2383.63579230651</v>
+        <v>2411.03394728067</v>
       </c>
       <c r="H86" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I86" t="n">
-        <v>14056.93911</v>
+        <v>14810.23109</v>
       </c>
       <c r="J86" t="n">
         <v>44</v>
@@ -7299,7 +7299,7 @@
         <v>3300</v>
       </c>
       <c r="N86" t="n">
-        <v>11940.15119</v>
+        <v>13358.5978</v>
       </c>
       <c r="O86" t="n">
         <v>1792826.893</v>
@@ -7363,13 +7363,13 @@
         <v>330</v>
       </c>
       <c r="G87" t="n">
-        <v>2383.63579230651</v>
+        <v>2411.03394728067</v>
       </c>
       <c r="H87" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I87" t="n">
-        <v>14056.93911</v>
+        <v>14810.23109</v>
       </c>
       <c r="J87" t="n">
         <v>44</v>
@@ -7384,7 +7384,7 @@
         <v>3300</v>
       </c>
       <c r="N87" t="n">
-        <v>11940.15119</v>
+        <v>13358.5978</v>
       </c>
       <c r="O87" t="n">
         <v>1792826.893</v>
@@ -7448,13 +7448,13 @@
         <v>330</v>
       </c>
       <c r="G88" t="n">
-        <v>2383.63579230651</v>
+        <v>2411.03394728067</v>
       </c>
       <c r="H88" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I88" t="n">
-        <v>14056.93911</v>
+        <v>14810.23109</v>
       </c>
       <c r="J88" t="n">
         <v>44</v>
@@ -7469,7 +7469,7 @@
         <v>3300</v>
       </c>
       <c r="N88" t="n">
-        <v>11940.15119</v>
+        <v>13358.5978</v>
       </c>
       <c r="O88" t="n">
         <v>1792826.893</v>
@@ -8793,13 +8793,13 @@
         <v>305</v>
       </c>
       <c r="G105" t="n">
-        <v>2443.01645031928</v>
+        <v>2471.55619508403</v>
       </c>
       <c r="H105" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I105" t="n">
-        <v>14078.65899</v>
+        <v>14874.68811</v>
       </c>
       <c r="J105" t="n">
         <v>35.4166666666667</v>
@@ -8814,7 +8814,7 @@
         <v>3300</v>
       </c>
       <c r="N105" t="n">
-        <v>12328.25074</v>
+        <v>13689.85698</v>
       </c>
       <c r="O105" t="n">
         <v>1792826.893</v>
@@ -8878,13 +8878,13 @@
         <v>305</v>
       </c>
       <c r="G106" t="n">
-        <v>2443.01645031928</v>
+        <v>2471.55619508403</v>
       </c>
       <c r="H106" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I106" t="n">
-        <v>14078.65899</v>
+        <v>14874.68811</v>
       </c>
       <c r="J106" t="n">
         <v>35.4166666666667</v>
@@ -8899,7 +8899,7 @@
         <v>3300</v>
       </c>
       <c r="N106" t="n">
-        <v>12328.25074</v>
+        <v>13689.85698</v>
       </c>
       <c r="O106" t="n">
         <v>1792826.893</v>
@@ -8963,13 +8963,13 @@
         <v>305</v>
       </c>
       <c r="G107" t="n">
-        <v>2443.01645031928</v>
+        <v>2471.55619508403</v>
       </c>
       <c r="H107" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I107" t="n">
-        <v>14078.65899</v>
+        <v>14874.68811</v>
       </c>
       <c r="J107" t="n">
         <v>35.4166666666667</v>
@@ -8984,7 +8984,7 @@
         <v>3300</v>
       </c>
       <c r="N107" t="n">
-        <v>12328.25074</v>
+        <v>13689.85698</v>
       </c>
       <c r="O107" t="n">
         <v>1792826.893</v>
@@ -9048,13 +9048,13 @@
         <v>305</v>
       </c>
       <c r="G108" t="n">
-        <v>2443.01645031928</v>
+        <v>2471.55619508403</v>
       </c>
       <c r="H108" t="n">
-        <v>19002.0561806033</v>
+        <v>16384.570789445</v>
       </c>
       <c r="I108" t="n">
-        <v>14078.65899</v>
+        <v>14874.68811</v>
       </c>
       <c r="J108" t="n">
         <v>35.4166666666667</v>
@@ -9069,7 +9069,7 @@
         <v>3300</v>
       </c>
       <c r="N108" t="n">
-        <v>12328.25074</v>
+        <v>13689.85698</v>
       </c>
       <c r="O108" t="n">
         <v>1792826.893</v>
@@ -10312,13 +10312,13 @@
         <v>290</v>
       </c>
       <c r="G124" t="n">
-        <v>1160.3477929001</v>
+        <v>1337.33402730948</v>
       </c>
       <c r="H124" t="n">
-        <v>10727.3401035386</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I124" t="n">
-        <v>9943.46256</v>
+        <v>10297.58264</v>
       </c>
       <c r="J124" t="n">
         <v>27.0833333333333</v>
@@ -10397,13 +10397,13 @@
         <v>290</v>
       </c>
       <c r="G125" t="n">
-        <v>1160.3477929001</v>
+        <v>1337.33402730948</v>
       </c>
       <c r="H125" t="n">
-        <v>10727.3401035386</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I125" t="n">
-        <v>9943.46256</v>
+        <v>10297.58264</v>
       </c>
       <c r="J125" t="n">
         <v>27.0833333333333</v>
@@ -10482,13 +10482,13 @@
         <v>290</v>
       </c>
       <c r="G126" t="n">
-        <v>1160.3477929001</v>
+        <v>1337.33402730948</v>
       </c>
       <c r="H126" t="n">
-        <v>10727.3401035386</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I126" t="n">
-        <v>9943.46256</v>
+        <v>10297.58264</v>
       </c>
       <c r="J126" t="n">
         <v>27.0833333333333</v>
@@ -10567,13 +10567,13 @@
         <v>290</v>
       </c>
       <c r="G127" t="n">
-        <v>1160.3477929001</v>
+        <v>1337.33402730948</v>
       </c>
       <c r="H127" t="n">
-        <v>10727.3401035386</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I127" t="n">
-        <v>9943.46256</v>
+        <v>10297.58264</v>
       </c>
       <c r="J127" t="n">
         <v>27.0833333333333</v>
@@ -11831,13 +11831,13 @@
         <v>290</v>
       </c>
       <c r="G143" t="n">
-        <v>834.882374076378</v>
+        <v>1030.3038336703</v>
       </c>
       <c r="H143" t="n">
-        <v>10597.5699940605</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I143" t="n">
-        <v>3057.0784</v>
+        <v>3509.37827</v>
       </c>
       <c r="J143" t="n">
         <v>20.8333333333333</v>
@@ -11916,13 +11916,13 @@
         <v>290</v>
       </c>
       <c r="G144" t="n">
-        <v>834.882374076378</v>
+        <v>1030.3038336703</v>
       </c>
       <c r="H144" t="n">
-        <v>10597.5699940605</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I144" t="n">
-        <v>3057.0784</v>
+        <v>3509.37827</v>
       </c>
       <c r="J144" t="n">
         <v>20.8333333333333</v>
@@ -12001,13 +12001,13 @@
         <v>290</v>
       </c>
       <c r="G145" t="n">
-        <v>834.882374076378</v>
+        <v>1030.3038336703</v>
       </c>
       <c r="H145" t="n">
-        <v>10597.5699940605</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I145" t="n">
-        <v>3057.0784</v>
+        <v>3509.37827</v>
       </c>
       <c r="J145" t="n">
         <v>20.8333333333333</v>
@@ -12086,13 +12086,13 @@
         <v>290</v>
       </c>
       <c r="G146" t="n">
-        <v>834.882374076378</v>
+        <v>1030.3038336703</v>
       </c>
       <c r="H146" t="n">
-        <v>10597.5699940605</v>
+        <v>15454.8012867119</v>
       </c>
       <c r="I146" t="n">
-        <v>3057.0784</v>
+        <v>3509.37827</v>
       </c>
       <c r="J146" t="n">
         <v>20.8333333333333</v>

--- a/state_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
+++ b/state_results/Rivers/PatikiStreamatKawiuRoad_030731a857.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="71">
   <si>
     <t>site name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U177"/>
+  <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,7 +669,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>89</v>
@@ -696,16 +699,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -722,7 +725,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>0.198</v>
@@ -752,16 +755,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,7 +781,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>89</v>
@@ -808,16 +811,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -834,7 +837,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>4.01</v>
@@ -864,16 +867,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -890,7 +893,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>0.191</v>
@@ -920,16 +923,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -946,7 +949,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>0.032</v>
@@ -961,7 +964,7 @@
         <v>0.042</v>
       </c>
       <c r="L7">
-        <v>0.034</v>
+        <v>0.0265</v>
       </c>
       <c r="M7">
         <v>0.039</v>
@@ -976,19 +979,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1005,7 +1008,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>0.032</v>
@@ -1020,7 +1023,7 @@
         <v>0.042</v>
       </c>
       <c r="L8">
-        <v>0.034</v>
+        <v>0.0265</v>
       </c>
       <c r="M8">
         <v>0.039</v>
@@ -1035,19 +1038,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1064,7 +1067,7 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>519</v>
@@ -1085,7 +1088,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L9">
-        <v>787</v>
+        <v>713.5</v>
       </c>
       <c r="M9">
         <v>994</v>
@@ -1100,19 +1103,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1129,7 +1132,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>519</v>
@@ -1150,7 +1153,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L10">
-        <v>787</v>
+        <v>713.5</v>
       </c>
       <c r="M10">
         <v>994</v>
@@ -1165,19 +1168,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1194,7 +1197,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>519</v>
@@ -1215,7 +1218,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L11">
-        <v>787</v>
+        <v>713.5</v>
       </c>
       <c r="M11">
         <v>994</v>
@@ -1230,19 +1233,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1259,7 +1262,7 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>519</v>
@@ -1280,7 +1283,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L12">
-        <v>787</v>
+        <v>713.5</v>
       </c>
       <c r="M12">
         <v>994</v>
@@ -1295,19 +1298,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1324,7 +1327,7 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>89</v>
@@ -1354,16 +1357,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,7 +1383,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>6.81435</v>
@@ -1395,7 +1398,7 @@
         <v>8.49</v>
       </c>
       <c r="L14">
-        <v>6.6722</v>
+        <v>6.6184</v>
       </c>
       <c r="M14">
         <v>7.36512</v>
@@ -1410,19 +1413,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,7 +1442,7 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>6.81435</v>
@@ -1454,7 +1457,7 @@
         <v>8.49</v>
       </c>
       <c r="L15">
-        <v>6.6722</v>
+        <v>6.6184</v>
       </c>
       <c r="M15">
         <v>7.36512</v>
@@ -1469,19 +1472,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1498,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>4.01</v>
@@ -1528,16 +1531,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,7 +1554,7 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>6.8425</v>
@@ -1566,7 +1569,7 @@
         <v>8.613</v>
       </c>
       <c r="L17">
-        <v>6.69</v>
+        <v>6.635</v>
       </c>
       <c r="M17">
         <v>7.4084</v>
@@ -1581,19 +1584,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>6.8425</v>
@@ -1622,7 +1625,7 @@
         <v>8.613</v>
       </c>
       <c r="L18">
-        <v>6.69</v>
+        <v>6.635</v>
       </c>
       <c r="M18">
         <v>7.4084</v>
@@ -1637,19 +1640,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1663,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>6.9305</v>
@@ -1678,7 +1681,7 @@
         <v>8.489000000000001</v>
       </c>
       <c r="L19">
-        <v>7.021</v>
+        <v>6.732</v>
       </c>
       <c r="M19">
         <v>7.5998</v>
@@ -1693,19 +1696,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1719,7 +1722,7 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6.9305</v>
@@ -1734,7 +1737,7 @@
         <v>8.489000000000001</v>
       </c>
       <c r="L20">
-        <v>7.021</v>
+        <v>6.732</v>
       </c>
       <c r="M20">
         <v>7.5998</v>
@@ -1749,19 +1752,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1775,7 +1778,7 @@
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>0.0585</v>
@@ -1790,7 +1793,7 @@
         <v>0.149</v>
       </c>
       <c r="L21">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="M21">
         <v>0.0866</v>
@@ -1805,19 +1808,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1831,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>0.0585</v>
@@ -1846,7 +1849,7 @@
         <v>0.149</v>
       </c>
       <c r="L22">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="M22">
         <v>0.0866</v>
@@ -1861,19 +1864,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1890,7 +1893,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>0.191</v>
@@ -1920,16 +1923,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1946,7 +1949,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <v>0.0325</v>
@@ -1976,19 +1979,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2005,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>0.0325</v>
@@ -2035,19 +2038,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2064,19 +2067,19 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <v>546</v>
       </c>
       <c r="G26">
-        <v>1859.03255496131</v>
+        <v>1577.8945709898</v>
       </c>
       <c r="H26">
-        <v>15620.5607534241</v>
+        <v>10273.6607290937</v>
       </c>
       <c r="I26">
-        <v>11504.32473</v>
+        <v>9391.048930000001</v>
       </c>
       <c r="J26">
         <v>50</v>
@@ -2085,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="L26">
-        <v>787</v>
+        <v>626</v>
       </c>
       <c r="M26">
         <v>2291.9</v>
       </c>
       <c r="N26">
-        <v>10916.86181</v>
+        <v>9004.14993</v>
       </c>
       <c r="O26">
         <v>1792826.893</v>
@@ -2100,19 +2103,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2129,19 +2132,19 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>546</v>
       </c>
       <c r="G27">
-        <v>1859.03255496131</v>
+        <v>1577.8945709898</v>
       </c>
       <c r="H27">
-        <v>15620.5607534241</v>
+        <v>10273.6607290937</v>
       </c>
       <c r="I27">
-        <v>11504.32473</v>
+        <v>9391.048930000001</v>
       </c>
       <c r="J27">
         <v>50</v>
@@ -2150,13 +2153,13 @@
         <v>70</v>
       </c>
       <c r="L27">
-        <v>787</v>
+        <v>626</v>
       </c>
       <c r="M27">
         <v>2291.9</v>
       </c>
       <c r="N27">
-        <v>10916.86181</v>
+        <v>9004.14993</v>
       </c>
       <c r="O27">
         <v>1792826.893</v>
@@ -2165,19 +2168,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2194,19 +2197,19 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28">
         <v>546</v>
       </c>
       <c r="G28">
-        <v>1859.03255496131</v>
+        <v>1577.8945709898</v>
       </c>
       <c r="H28">
-        <v>15620.5607534241</v>
+        <v>10273.6607290937</v>
       </c>
       <c r="I28">
-        <v>11504.32473</v>
+        <v>9391.048930000001</v>
       </c>
       <c r="J28">
         <v>50</v>
@@ -2215,13 +2218,13 @@
         <v>70</v>
       </c>
       <c r="L28">
-        <v>787</v>
+        <v>626</v>
       </c>
       <c r="M28">
         <v>2291.9</v>
       </c>
       <c r="N28">
-        <v>10916.86181</v>
+        <v>9004.14993</v>
       </c>
       <c r="O28">
         <v>1792826.893</v>
@@ -2230,19 +2233,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2259,19 +2262,19 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>546</v>
       </c>
       <c r="G29">
-        <v>1859.03255496131</v>
+        <v>1577.8945709898</v>
       </c>
       <c r="H29">
-        <v>15620.5607534241</v>
+        <v>10273.6607290937</v>
       </c>
       <c r="I29">
-        <v>11504.32473</v>
+        <v>9391.048930000001</v>
       </c>
       <c r="J29">
         <v>50</v>
@@ -2280,13 +2283,13 @@
         <v>70</v>
       </c>
       <c r="L29">
-        <v>787</v>
+        <v>626</v>
       </c>
       <c r="M29">
         <v>2291.9</v>
       </c>
       <c r="N29">
-        <v>10916.86181</v>
+        <v>9004.14993</v>
       </c>
       <c r="O29">
         <v>1792826.893</v>
@@ -2295,19 +2298,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2324,7 +2327,7 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>85</v>
@@ -2354,16 +2357,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2380,13 +2383,13 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F31">
-        <v>0.00438</v>
+        <v>0.00338</v>
       </c>
       <c r="G31">
-        <v>0.008042304299948301</v>
+        <v>0.0069344375095949</v>
       </c>
       <c r="H31">
         <v>0.0414980983564493</v>
@@ -2395,7 +2398,7 @@
         <v>0.03313</v>
       </c>
       <c r="L31">
-        <v>0.00406</v>
+        <v>0.00218</v>
       </c>
       <c r="M31">
         <v>0.01388</v>
@@ -2410,19 +2413,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2439,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32">
-        <v>0.00438</v>
+        <v>0.00338</v>
       </c>
       <c r="G32">
-        <v>0.008042304299948301</v>
+        <v>0.0069344375095949</v>
       </c>
       <c r="H32">
         <v>0.0414980983564493</v>
@@ -2454,7 +2457,7 @@
         <v>0.03313</v>
       </c>
       <c r="L32">
-        <v>0.00406</v>
+        <v>0.00218</v>
       </c>
       <c r="M32">
         <v>0.01388</v>
@@ -2469,19 +2472,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,7 +2501,7 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>6.6184</v>
@@ -2513,7 +2516,7 @@
         <v>7.90745</v>
       </c>
       <c r="L33">
-        <v>6.6722</v>
+        <v>6.6184</v>
       </c>
       <c r="M33">
         <v>7.30543</v>
@@ -2528,19 +2531,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2557,7 +2560,7 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>6.6184</v>
@@ -2572,7 +2575,7 @@
         <v>7.90745</v>
       </c>
       <c r="L34">
-        <v>6.6722</v>
+        <v>6.6184</v>
       </c>
       <c r="M34">
         <v>7.30543</v>
@@ -2587,19 +2590,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2616,7 +2619,7 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>4.07</v>
@@ -2646,16 +2649,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2669,7 +2672,7 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36">
         <v>6.6575</v>
@@ -2684,7 +2687,7 @@
         <v>7.938</v>
       </c>
       <c r="L36">
-        <v>6.69</v>
+        <v>6.6575</v>
       </c>
       <c r="M36">
         <v>7.3474</v>
@@ -2699,19 +2702,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2725,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>6.6575</v>
@@ -2740,7 +2743,7 @@
         <v>7.938</v>
       </c>
       <c r="L37">
-        <v>6.69</v>
+        <v>6.6575</v>
       </c>
       <c r="M37">
         <v>7.3474</v>
@@ -2755,19 +2758,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2781,7 +2784,7 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>6.756</v>
@@ -2796,7 +2799,7 @@
         <v>8.02</v>
       </c>
       <c r="L38">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="M38">
         <v>7.5456</v>
@@ -2811,19 +2814,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2837,7 +2840,7 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>6.756</v>
@@ -2852,7 +2855,7 @@
         <v>8.02</v>
       </c>
       <c r="L39">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="M39">
         <v>7.5456</v>
@@ -2867,19 +2870,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2893,7 +2896,7 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F40">
         <v>0.068</v>
@@ -2908,7 +2911,7 @@
         <v>0.296</v>
       </c>
       <c r="L40">
-        <v>0.056</v>
+        <v>0.0585</v>
       </c>
       <c r="M40">
         <v>0.1076</v>
@@ -2923,19 +2926,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2949,7 +2952,7 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>0.068</v>
@@ -2964,7 +2967,7 @@
         <v>0.296</v>
       </c>
       <c r="L41">
-        <v>0.056</v>
+        <v>0.0585</v>
       </c>
       <c r="M41">
         <v>0.1076</v>
@@ -2979,19 +2982,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3008,7 +3011,7 @@
         <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42">
         <v>0.19</v>
@@ -3038,16 +3041,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3064,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43">
         <v>0.033</v>
@@ -3079,7 +3082,7 @@
         <v>0.0693</v>
       </c>
       <c r="L43">
-        <v>0.034</v>
+        <v>0.0325</v>
       </c>
       <c r="M43">
         <v>0.041</v>
@@ -3094,19 +3097,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3123,7 +3126,7 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>0.033</v>
@@ -3138,7 +3141,7 @@
         <v>0.0693</v>
       </c>
       <c r="L44">
-        <v>0.034</v>
+        <v>0.0325</v>
       </c>
       <c r="M44">
         <v>0.041</v>
@@ -3153,19 +3156,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3182,19 +3185,19 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>574</v>
       </c>
       <c r="G45">
-        <v>1844.9955691328</v>
+        <v>1662.87718162009</v>
       </c>
       <c r="H45">
-        <v>15620.5607534241</v>
+        <v>11683.8306046525</v>
       </c>
       <c r="I45">
-        <v>11420.40145</v>
+        <v>9679.80019</v>
       </c>
       <c r="J45">
         <v>51.9230769230769</v>
@@ -3203,13 +3206,13 @@
         <v>67.30769230769231</v>
       </c>
       <c r="L45">
-        <v>940</v>
+        <v>863.5</v>
       </c>
       <c r="M45">
         <v>2847.98</v>
       </c>
       <c r="N45">
-        <v>10165.71976</v>
+        <v>9005.63336</v>
       </c>
       <c r="O45">
         <v>1792826.893</v>
@@ -3218,19 +3221,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3247,19 +3250,19 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>574</v>
       </c>
       <c r="G46">
-        <v>1844.9955691328</v>
+        <v>1662.87718162009</v>
       </c>
       <c r="H46">
-        <v>15620.5607534241</v>
+        <v>11683.8306046525</v>
       </c>
       <c r="I46">
-        <v>11420.40145</v>
+        <v>9679.80019</v>
       </c>
       <c r="J46">
         <v>51.9230769230769</v>
@@ -3268,13 +3271,13 @@
         <v>67.30769230769231</v>
       </c>
       <c r="L46">
-        <v>940</v>
+        <v>863.5</v>
       </c>
       <c r="M46">
         <v>2847.98</v>
       </c>
       <c r="N46">
-        <v>10165.71976</v>
+        <v>9005.63336</v>
       </c>
       <c r="O46">
         <v>1792826.893</v>
@@ -3283,19 +3286,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3312,19 +3315,19 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <v>574</v>
       </c>
       <c r="G47">
-        <v>1844.9955691328</v>
+        <v>1662.87718162009</v>
       </c>
       <c r="H47">
-        <v>15620.5607534241</v>
+        <v>11683.8306046525</v>
       </c>
       <c r="I47">
-        <v>11420.40145</v>
+        <v>9679.80019</v>
       </c>
       <c r="J47">
         <v>51.9230769230769</v>
@@ -3333,13 +3336,13 @@
         <v>67.30769230769231</v>
       </c>
       <c r="L47">
-        <v>940</v>
+        <v>863.5</v>
       </c>
       <c r="M47">
         <v>2847.98</v>
       </c>
       <c r="N47">
-        <v>10165.71976</v>
+        <v>9005.63336</v>
       </c>
       <c r="O47">
         <v>1792826.893</v>
@@ -3348,19 +3351,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3377,19 +3380,19 @@
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>574</v>
       </c>
       <c r="G48">
-        <v>1844.9955691328</v>
+        <v>1662.87718162009</v>
       </c>
       <c r="H48">
-        <v>15620.5607534241</v>
+        <v>11683.8306046525</v>
       </c>
       <c r="I48">
-        <v>11420.40145</v>
+        <v>9679.80019</v>
       </c>
       <c r="J48">
         <v>51.9230769230769</v>
@@ -3398,13 +3401,13 @@
         <v>67.30769230769231</v>
       </c>
       <c r="L48">
-        <v>940</v>
+        <v>863.5</v>
       </c>
       <c r="M48">
         <v>2847.98</v>
       </c>
       <c r="N48">
-        <v>10165.71976</v>
+        <v>9005.63336</v>
       </c>
       <c r="O48">
         <v>1792826.893</v>
@@ -3413,19 +3416,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3442,7 +3445,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <v>81</v>
@@ -3472,16 +3475,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3498,13 +3501,13 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50">
-        <v>0.00493</v>
+        <v>0.004</v>
       </c>
       <c r="G50">
-        <v>0.0085102790327761</v>
+        <v>0.0076442979475147</v>
       </c>
       <c r="H50">
         <v>0.0414980983564493</v>
@@ -3513,7 +3516,7 @@
         <v>0.02271</v>
       </c>
       <c r="L50">
-        <v>0.00432</v>
+        <v>0.00357</v>
       </c>
       <c r="M50">
         <v>0.01382</v>
@@ -3528,19 +3531,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3557,13 +3560,13 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51">
-        <v>0.00493</v>
+        <v>0.004</v>
       </c>
       <c r="G51">
-        <v>0.0085102790327761</v>
+        <v>0.0076442979475147</v>
       </c>
       <c r="H51">
         <v>0.0414980983564493</v>
@@ -3572,7 +3575,7 @@
         <v>0.02271</v>
       </c>
       <c r="L51">
-        <v>0.00432</v>
+        <v>0.00357</v>
       </c>
       <c r="M51">
         <v>0.01382</v>
@@ -3587,19 +3590,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3616,7 +3619,7 @@
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52">
         <v>6.265</v>
@@ -3631,7 +3634,7 @@
         <v>7.81911</v>
       </c>
       <c r="L52">
-        <v>6.3828</v>
+        <v>6.3414</v>
       </c>
       <c r="M52">
         <v>7.17317</v>
@@ -3646,19 +3649,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3675,7 +3678,7 @@
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>6.265</v>
@@ -3690,7 +3693,7 @@
         <v>7.81911</v>
       </c>
       <c r="L53">
-        <v>6.3828</v>
+        <v>6.3414</v>
       </c>
       <c r="M53">
         <v>7.17317</v>
@@ -3705,19 +3708,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3734,7 +3737,7 @@
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F54">
         <v>4.07</v>
@@ -3764,16 +3767,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3787,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55">
         <v>6.2875</v>
@@ -3802,7 +3805,7 @@
         <v>7.8341</v>
       </c>
       <c r="L55">
-        <v>6.427</v>
+        <v>6.371</v>
       </c>
       <c r="M55">
         <v>7.20928</v>
@@ -3817,19 +3820,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3843,7 +3846,7 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>6.2875</v>
@@ -3858,7 +3861,7 @@
         <v>7.8341</v>
       </c>
       <c r="L56">
-        <v>6.427</v>
+        <v>6.371</v>
       </c>
       <c r="M56">
         <v>7.20928</v>
@@ -3873,19 +3876,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3899,7 +3902,7 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F57">
         <v>6.632</v>
@@ -3914,7 +3917,7 @@
         <v>7.8442</v>
       </c>
       <c r="L57">
-        <v>6.75</v>
+        <v>6.5515</v>
       </c>
       <c r="M57">
         <v>7.42844</v>
@@ -3929,19 +3932,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3955,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F58">
         <v>6.632</v>
@@ -3970,7 +3973,7 @@
         <v>7.8442</v>
       </c>
       <c r="L58">
-        <v>6.75</v>
+        <v>6.5515</v>
       </c>
       <c r="M58">
         <v>7.42844</v>
@@ -3985,19 +3988,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4011,7 +4014,7 @@
         <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>0.07000000000000001</v>
@@ -4026,7 +4029,7 @@
         <v>0.161</v>
       </c>
       <c r="L59">
-        <v>0.056</v>
+        <v>0.0615</v>
       </c>
       <c r="M59">
         <v>0.11564</v>
@@ -4041,19 +4044,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4067,7 +4070,7 @@
         <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>0.07000000000000001</v>
@@ -4082,7 +4085,7 @@
         <v>0.161</v>
       </c>
       <c r="L60">
-        <v>0.056</v>
+        <v>0.0615</v>
       </c>
       <c r="M60">
         <v>0.11564</v>
@@ -4097,19 +4100,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4126,7 +4129,7 @@
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F61">
         <v>0.191</v>
@@ -4156,16 +4159,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4182,13 +4185,13 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62">
         <v>0.6225000000000001</v>
       </c>
       <c r="G62">
-        <v>0.938051310979893</v>
+        <v>0.938053787971979</v>
       </c>
       <c r="H62">
         <v>3.2</v>
@@ -4197,7 +4200,7 @@
         <v>2.97</v>
       </c>
       <c r="L62">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="M62">
         <v>1.752</v>
@@ -4212,19 +4215,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4241,7 +4244,7 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F63">
         <v>0.034</v>
@@ -4256,7 +4259,7 @@
         <v>0.0915</v>
       </c>
       <c r="L63">
-        <v>0.0345</v>
+        <v>0.034</v>
       </c>
       <c r="M63">
         <v>0.042</v>
@@ -4271,19 +4274,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4300,7 +4303,7 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64">
         <v>0.034</v>
@@ -4315,7 +4318,7 @@
         <v>0.0915</v>
       </c>
       <c r="L64">
-        <v>0.0345</v>
+        <v>0.034</v>
       </c>
       <c r="M64">
         <v>0.042</v>
@@ -4330,19 +4333,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4359,19 +4362,19 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <v>489</v>
       </c>
       <c r="G65">
-        <v>2061.41947911781</v>
+        <v>1857.97140450321</v>
       </c>
       <c r="H65">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I65">
-        <v>11504.32473</v>
+        <v>10541.30494</v>
       </c>
       <c r="J65">
         <v>47.3684210526316</v>
@@ -4380,13 +4383,13 @@
         <v>64.9122807017544</v>
       </c>
       <c r="L65">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="M65">
         <v>2672</v>
       </c>
       <c r="N65">
-        <v>10619.69452</v>
+        <v>9708.675310000001</v>
       </c>
       <c r="O65">
         <v>1792826.893</v>
@@ -4395,19 +4398,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4424,19 +4427,19 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <v>489</v>
       </c>
       <c r="G66">
-        <v>2061.41947911781</v>
+        <v>1857.97140450321</v>
       </c>
       <c r="H66">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I66">
-        <v>11504.32473</v>
+        <v>10541.30494</v>
       </c>
       <c r="J66">
         <v>47.3684210526316</v>
@@ -4445,13 +4448,13 @@
         <v>64.9122807017544</v>
       </c>
       <c r="L66">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="M66">
         <v>2672</v>
       </c>
       <c r="N66">
-        <v>10619.69452</v>
+        <v>9708.675310000001</v>
       </c>
       <c r="O66">
         <v>1792826.893</v>
@@ -4460,19 +4463,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4489,19 +4492,19 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67">
         <v>489</v>
       </c>
       <c r="G67">
-        <v>2061.41947911781</v>
+        <v>1857.97140450321</v>
       </c>
       <c r="H67">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I67">
-        <v>11504.32473</v>
+        <v>10541.30494</v>
       </c>
       <c r="J67">
         <v>47.3684210526316</v>
@@ -4510,13 +4513,13 @@
         <v>64.9122807017544</v>
       </c>
       <c r="L67">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="M67">
         <v>2672</v>
       </c>
       <c r="N67">
-        <v>10619.69452</v>
+        <v>9708.675310000001</v>
       </c>
       <c r="O67">
         <v>1792826.893</v>
@@ -4525,19 +4528,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4554,19 +4557,19 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68">
         <v>489</v>
       </c>
       <c r="G68">
-        <v>2061.41947911781</v>
+        <v>1857.97140450321</v>
       </c>
       <c r="H68">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I68">
-        <v>11504.32473</v>
+        <v>10541.30494</v>
       </c>
       <c r="J68">
         <v>47.3684210526316</v>
@@ -4575,13 +4578,13 @@
         <v>64.9122807017544</v>
       </c>
       <c r="L68">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="M68">
         <v>2672</v>
       </c>
       <c r="N68">
-        <v>10619.69452</v>
+        <v>9708.675310000001</v>
       </c>
       <c r="O68">
         <v>1792826.893</v>
@@ -4590,19 +4593,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4619,7 +4622,7 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F69">
         <v>81</v>
@@ -4649,16 +4652,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4675,13 +4678,13 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70">
-        <v>0.00695</v>
+        <v>0.00635</v>
       </c>
       <c r="G70">
-        <v>0.009742672040671099</v>
+        <v>0.009087751833084599</v>
       </c>
       <c r="H70">
         <v>0.0414980983564493</v>
@@ -4690,7 +4693,7 @@
         <v>0.0318</v>
       </c>
       <c r="L70">
-        <v>0.0046</v>
+        <v>0.00399</v>
       </c>
       <c r="M70">
         <v>0.01643</v>
@@ -4705,19 +4708,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4734,13 +4737,13 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F71">
-        <v>0.00695</v>
+        <v>0.00635</v>
       </c>
       <c r="G71">
-        <v>0.009742672040671099</v>
+        <v>0.009087751833084599</v>
       </c>
       <c r="H71">
         <v>0.0414980983564493</v>
@@ -4749,7 +4752,7 @@
         <v>0.0318</v>
       </c>
       <c r="L71">
-        <v>0.0046</v>
+        <v>0.00399</v>
       </c>
       <c r="M71">
         <v>0.01643</v>
@@ -4764,19 +4767,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4793,7 +4796,7 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72">
         <v>6.23</v>
@@ -4808,7 +4811,7 @@
         <v>7.69844</v>
       </c>
       <c r="L72">
-        <v>6.4614</v>
+        <v>6.3664</v>
       </c>
       <c r="M72">
         <v>7.0343</v>
@@ -4823,19 +4826,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4852,7 +4855,7 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73">
         <v>6.23</v>
@@ -4867,7 +4870,7 @@
         <v>7.69844</v>
       </c>
       <c r="L73">
-        <v>6.4614</v>
+        <v>6.3664</v>
       </c>
       <c r="M73">
         <v>7.0343</v>
@@ -4882,19 +4885,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4911,7 +4914,7 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74">
         <v>4.07</v>
@@ -4941,16 +4944,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4964,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F75">
         <v>6.26</v>
@@ -4979,7 +4982,7 @@
         <v>7.71885</v>
       </c>
       <c r="L75">
-        <v>6.526</v>
+        <v>6.4085</v>
       </c>
       <c r="M75">
         <v>7.0862</v>
@@ -4994,19 +4997,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5020,7 +5023,7 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F76">
         <v>6.26</v>
@@ -5035,7 +5038,7 @@
         <v>7.71885</v>
       </c>
       <c r="L76">
-        <v>6.526</v>
+        <v>6.4085</v>
       </c>
       <c r="M76">
         <v>7.0862</v>
@@ -5050,19 +5053,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5076,7 +5079,7 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F77">
         <v>6.56</v>
@@ -5091,7 +5094,7 @@
         <v>7.7725</v>
       </c>
       <c r="L77">
-        <v>6.78</v>
+        <v>6.592</v>
       </c>
       <c r="M77">
         <v>7.35296</v>
@@ -5106,19 +5109,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5132,7 +5135,7 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78">
         <v>6.56</v>
@@ -5147,7 +5150,7 @@
         <v>7.7725</v>
       </c>
       <c r="L78">
-        <v>6.78</v>
+        <v>6.592</v>
       </c>
       <c r="M78">
         <v>7.35296</v>
@@ -5162,19 +5165,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5188,7 +5191,7 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F79">
         <v>0.07000000000000001</v>
@@ -5203,7 +5206,7 @@
         <v>0.38095</v>
       </c>
       <c r="L79">
-        <v>0.0605</v>
+        <v>0.066</v>
       </c>
       <c r="M79">
         <v>0.12886</v>
@@ -5218,19 +5221,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5244,7 +5247,7 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F80">
         <v>0.07000000000000001</v>
@@ -5259,7 +5262,7 @@
         <v>0.38095</v>
       </c>
       <c r="L80">
-        <v>0.0605</v>
+        <v>0.066</v>
       </c>
       <c r="M80">
         <v>0.12886</v>
@@ -5274,19 +5277,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5303,7 +5306,7 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F81">
         <v>0.191</v>
@@ -5333,16 +5336,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5359,13 +5362,13 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82">
         <v>0.471</v>
       </c>
       <c r="G82">
-        <v>0.71280772485238</v>
+        <v>0.712810511468476</v>
       </c>
       <c r="H82">
         <v>3.2</v>
@@ -5389,19 +5392,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5418,7 +5421,7 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <v>0.034</v>
@@ -5433,7 +5436,7 @@
         <v>0.102</v>
       </c>
       <c r="L83">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="M83">
         <v>0.042</v>
@@ -5448,19 +5451,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5477,7 +5480,7 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F84">
         <v>0.034</v>
@@ -5492,7 +5495,7 @@
         <v>0.102</v>
       </c>
       <c r="L84">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="M84">
         <v>0.042</v>
@@ -5507,19 +5510,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5536,19 +5539,19 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F85">
         <v>330</v>
       </c>
       <c r="G85">
-        <v>2252.5582061943</v>
+        <v>2020.62740113366</v>
       </c>
       <c r="H85">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I85">
-        <v>11504.32473</v>
+        <v>10685.42105</v>
       </c>
       <c r="J85">
         <v>44</v>
@@ -5557,13 +5560,13 @@
         <v>62</v>
       </c>
       <c r="L85">
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="M85">
         <v>3300</v>
       </c>
       <c r="N85">
-        <v>11084.70836</v>
+        <v>10012.82436</v>
       </c>
       <c r="O85">
         <v>1792826.893</v>
@@ -5572,19 +5575,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5601,19 +5604,19 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F86">
         <v>330</v>
       </c>
       <c r="G86">
-        <v>2252.5582061943</v>
+        <v>2020.62740113366</v>
       </c>
       <c r="H86">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I86">
-        <v>11504.32473</v>
+        <v>10685.42105</v>
       </c>
       <c r="J86">
         <v>44</v>
@@ -5622,13 +5625,13 @@
         <v>62</v>
       </c>
       <c r="L86">
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="M86">
         <v>3300</v>
       </c>
       <c r="N86">
-        <v>11084.70836</v>
+        <v>10012.82436</v>
       </c>
       <c r="O86">
         <v>1792826.893</v>
@@ -5637,19 +5640,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5666,19 +5669,19 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F87">
         <v>330</v>
       </c>
       <c r="G87">
-        <v>2252.5582061943</v>
+        <v>2020.62740113366</v>
       </c>
       <c r="H87">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I87">
-        <v>11504.32473</v>
+        <v>10685.42105</v>
       </c>
       <c r="J87">
         <v>44</v>
@@ -5687,13 +5690,13 @@
         <v>62</v>
       </c>
       <c r="L87">
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="M87">
         <v>3300</v>
       </c>
       <c r="N87">
-        <v>11084.70836</v>
+        <v>10012.82436</v>
       </c>
       <c r="O87">
         <v>1792826.893</v>
@@ -5702,19 +5705,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5731,19 +5734,19 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <v>330</v>
       </c>
       <c r="G88">
-        <v>2252.5582061943</v>
+        <v>2020.62740113366</v>
       </c>
       <c r="H88">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I88">
-        <v>11504.32473</v>
+        <v>10685.42105</v>
       </c>
       <c r="J88">
         <v>44</v>
@@ -5752,13 +5755,13 @@
         <v>62</v>
       </c>
       <c r="L88">
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="M88">
         <v>3300</v>
       </c>
       <c r="N88">
-        <v>11084.70836</v>
+        <v>10012.82436</v>
       </c>
       <c r="O88">
         <v>1792826.893</v>
@@ -5767,19 +5770,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5796,7 +5799,7 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F89">
         <v>81</v>
@@ -5826,16 +5829,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5852,13 +5855,13 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F90">
         <v>0.00793</v>
       </c>
       <c r="G90">
-        <v>0.0110585550558811</v>
+        <v>0.0105651733253643</v>
       </c>
       <c r="H90">
         <v>0.0414980983564493</v>
@@ -5867,7 +5870,7 @@
         <v>0.03485</v>
       </c>
       <c r="L90">
-        <v>0.00469</v>
+        <v>0.00699</v>
       </c>
       <c r="M90">
         <v>0.0177</v>
@@ -5882,19 +5885,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5911,13 +5914,13 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F91">
         <v>0.00793</v>
       </c>
       <c r="G91">
-        <v>0.0110585550558811</v>
+        <v>0.0105651733253643</v>
       </c>
       <c r="H91">
         <v>0.0414980983564493</v>
@@ -5926,7 +5929,7 @@
         <v>0.03485</v>
       </c>
       <c r="L91">
-        <v>0.00469</v>
+        <v>0.00699</v>
       </c>
       <c r="M91">
         <v>0.0177</v>
@@ -5941,19 +5944,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5970,7 +5973,7 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F92">
         <v>6.07</v>
@@ -5985,7 +5988,7 @@
         <v>7.3893</v>
       </c>
       <c r="L92">
-        <v>6.36</v>
+        <v>6.3</v>
       </c>
       <c r="M92">
         <v>6.95</v>
@@ -6000,19 +6003,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6029,7 +6032,7 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F93">
         <v>6.07</v>
@@ -6044,7 +6047,7 @@
         <v>7.3893</v>
       </c>
       <c r="L93">
-        <v>6.36</v>
+        <v>6.3</v>
       </c>
       <c r="M93">
         <v>6.95</v>
@@ -6059,19 +6062,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6088,7 +6091,7 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F94">
         <v>4.31</v>
@@ -6118,16 +6121,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6141,7 +6144,7 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F95">
         <v>6.0975</v>
@@ -6156,7 +6159,7 @@
         <v>7.427</v>
       </c>
       <c r="L95">
-        <v>6.39</v>
+        <v>6.315</v>
       </c>
       <c r="M95">
         <v>6.99</v>
@@ -6171,19 +6174,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6197,7 +6200,7 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F96">
         <v>6.0975</v>
@@ -6212,7 +6215,7 @@
         <v>7.427</v>
       </c>
       <c r="L96">
-        <v>6.39</v>
+        <v>6.315</v>
       </c>
       <c r="M96">
         <v>6.99</v>
@@ -6227,19 +6230,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6253,7 +6256,7 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F97">
         <v>6.4245</v>
@@ -6268,7 +6271,7 @@
         <v>7.61</v>
       </c>
       <c r="L97">
-        <v>6.75</v>
+        <v>6.46</v>
       </c>
       <c r="M97">
         <v>7.14</v>
@@ -6283,19 +6286,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6309,7 +6312,7 @@
         <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98">
         <v>6.4245</v>
@@ -6324,7 +6327,7 @@
         <v>7.61</v>
       </c>
       <c r="L98">
-        <v>6.75</v>
+        <v>6.46</v>
       </c>
       <c r="M98">
         <v>7.14</v>
@@ -6339,19 +6342,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6365,7 +6368,7 @@
         <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99">
         <v>0.066</v>
@@ -6395,19 +6398,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6421,7 +6424,7 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F100">
         <v>0.066</v>
@@ -6451,19 +6454,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6480,7 +6483,7 @@
         <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101">
         <v>0.19</v>
@@ -6510,16 +6513,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6536,13 +6539,13 @@
         <v>53</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F102">
         <v>0.46</v>
       </c>
       <c r="G102">
-        <v>0.619829088757671</v>
+        <v>0.619831565749757</v>
       </c>
       <c r="H102">
         <v>2.1</v>
@@ -6551,7 +6554,7 @@
         <v>1.519</v>
       </c>
       <c r="L102">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="M102">
         <v>1.1</v>
@@ -6566,19 +6569,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6595,7 +6598,7 @@
         <v>53</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F103">
         <v>0.0335</v>
@@ -6610,7 +6613,7 @@
         <v>0.1034</v>
       </c>
       <c r="L103">
-        <v>0.0355</v>
+        <v>0.034</v>
       </c>
       <c r="M103">
         <v>0.042</v>
@@ -6625,19 +6628,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6654,7 +6657,7 @@
         <v>53</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F104">
         <v>0.0335</v>
@@ -6669,7 +6672,7 @@
         <v>0.1034</v>
       </c>
       <c r="L104">
-        <v>0.0355</v>
+        <v>0.034</v>
       </c>
       <c r="M104">
         <v>0.042</v>
@@ -6684,19 +6687,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6713,19 +6716,19 @@
         <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F105">
         <v>305</v>
       </c>
       <c r="G105">
-        <v>2306.47729811907</v>
+        <v>2064.88270951423</v>
       </c>
       <c r="H105">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I105">
-        <v>11915.94833</v>
+        <v>10785.262</v>
       </c>
       <c r="J105">
         <v>35.4166666666667</v>
@@ -6734,13 +6737,13 @@
         <v>56.25</v>
       </c>
       <c r="L105">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M105">
         <v>3300</v>
       </c>
       <c r="N105">
-        <v>11218.9856</v>
+        <v>10096.292</v>
       </c>
       <c r="O105">
         <v>1792826.893</v>
@@ -6749,19 +6752,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6778,19 +6781,19 @@
         <v>53</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F106">
         <v>305</v>
       </c>
       <c r="G106">
-        <v>2306.47729811907</v>
+        <v>2064.88270951423</v>
       </c>
       <c r="H106">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I106">
-        <v>11915.94833</v>
+        <v>10785.262</v>
       </c>
       <c r="J106">
         <v>35.4166666666667</v>
@@ -6799,13 +6802,13 @@
         <v>56.25</v>
       </c>
       <c r="L106">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M106">
         <v>3300</v>
       </c>
       <c r="N106">
-        <v>11218.9856</v>
+        <v>10096.292</v>
       </c>
       <c r="O106">
         <v>1792826.893</v>
@@ -6814,19 +6817,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6843,19 +6846,19 @@
         <v>53</v>
       </c>
       <c r="E107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F107">
         <v>305</v>
       </c>
       <c r="G107">
-        <v>2306.47729811907</v>
+        <v>2064.88270951423</v>
       </c>
       <c r="H107">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I107">
-        <v>11915.94833</v>
+        <v>10785.262</v>
       </c>
       <c r="J107">
         <v>35.4166666666667</v>
@@ -6864,13 +6867,13 @@
         <v>56.25</v>
       </c>
       <c r="L107">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M107">
         <v>3300</v>
       </c>
       <c r="N107">
-        <v>11218.9856</v>
+        <v>10096.292</v>
       </c>
       <c r="O107">
         <v>1792826.893</v>
@@ -6879,19 +6882,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6908,19 +6911,19 @@
         <v>53</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F108">
         <v>305</v>
       </c>
       <c r="G108">
-        <v>2306.47729811907</v>
+        <v>2064.88270951423</v>
       </c>
       <c r="H108">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I108">
-        <v>11915.94833</v>
+        <v>10785.262</v>
       </c>
       <c r="J108">
         <v>35.4166666666667</v>
@@ -6929,13 +6932,13 @@
         <v>56.25</v>
       </c>
       <c r="L108">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M108">
         <v>3300</v>
       </c>
       <c r="N108">
-        <v>11218.9856</v>
+        <v>10096.292</v>
       </c>
       <c r="O108">
         <v>1792826.893</v>
@@ -6944,19 +6947,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6973,7 +6976,7 @@
         <v>53</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F109">
         <v>81</v>
@@ -7003,16 +7006,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7029,13 +7032,13 @@
         <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F110">
         <v>0.01046</v>
       </c>
       <c r="G110">
-        <v>0.0124253646516823</v>
+        <v>0.0122275287035565</v>
       </c>
       <c r="H110">
         <v>0.0414980983564493</v>
@@ -7044,7 +7047,7 @@
         <v>0.03616</v>
       </c>
       <c r="L110">
-        <v>0.0064</v>
+        <v>0.00885</v>
       </c>
       <c r="M110">
         <v>0.01821</v>
@@ -7059,19 +7062,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7088,13 +7091,13 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F111">
         <v>0.01046</v>
       </c>
       <c r="G111">
-        <v>0.0124253646516823</v>
+        <v>0.0122275287035565</v>
       </c>
       <c r="H111">
         <v>0.0414980983564493</v>
@@ -7103,7 +7106,7 @@
         <v>0.03616</v>
       </c>
       <c r="L111">
-        <v>0.0064</v>
+        <v>0.00885</v>
       </c>
       <c r="M111">
         <v>0.01821</v>
@@ -7118,19 +7121,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7147,7 +7150,7 @@
         <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F112">
         <v>5.835</v>
@@ -7162,7 +7165,7 @@
         <v>7.013</v>
       </c>
       <c r="L112">
-        <v>6.205</v>
+        <v>6.1</v>
       </c>
       <c r="M112">
         <v>6.6404</v>
@@ -7177,19 +7180,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7206,7 +7209,7 @@
         <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F113">
         <v>5.835</v>
@@ -7221,7 +7224,7 @@
         <v>7.013</v>
       </c>
       <c r="L113">
-        <v>6.205</v>
+        <v>6.1</v>
       </c>
       <c r="M113">
         <v>6.6404</v>
@@ -7236,19 +7239,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7265,7 +7268,7 @@
         <v>53</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F114">
         <v>4.31</v>
@@ -7295,16 +7298,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7318,7 +7321,7 @@
         <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F115">
         <v>5.86</v>
@@ -7333,7 +7336,7 @@
         <v>7.072</v>
       </c>
       <c r="L115">
-        <v>6.2435</v>
+        <v>6.14</v>
       </c>
       <c r="M115">
         <v>6.6951</v>
@@ -7348,19 +7351,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7374,7 +7377,7 @@
         <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F116">
         <v>5.86</v>
@@ -7389,7 +7392,7 @@
         <v>7.072</v>
       </c>
       <c r="L116">
-        <v>6.2435</v>
+        <v>6.14</v>
       </c>
       <c r="M116">
         <v>6.6951</v>
@@ -7404,19 +7407,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7430,7 +7433,7 @@
         <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F117">
         <v>6.195</v>
@@ -7445,7 +7448,7 @@
         <v>7.169</v>
       </c>
       <c r="L117">
-        <v>6.365</v>
+        <v>6.33</v>
       </c>
       <c r="M117">
         <v>6.8168</v>
@@ -7460,19 +7463,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7486,7 +7489,7 @@
         <v>53</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F118">
         <v>6.195</v>
@@ -7501,7 +7504,7 @@
         <v>7.169</v>
       </c>
       <c r="L118">
-        <v>6.365</v>
+        <v>6.33</v>
       </c>
       <c r="M118">
         <v>6.8168</v>
@@ -7516,19 +7519,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7542,7 +7545,7 @@
         <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F119">
         <v>0.066</v>
@@ -7557,7 +7560,7 @@
         <v>0.4313</v>
       </c>
       <c r="L119">
-        <v>0.0625</v>
+        <v>0.065</v>
       </c>
       <c r="M119">
         <v>0.12604</v>
@@ -7572,19 +7575,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7598,7 +7601,7 @@
         <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F120">
         <v>0.066</v>
@@ -7613,7 +7616,7 @@
         <v>0.4313</v>
       </c>
       <c r="L120">
-        <v>0.0625</v>
+        <v>0.065</v>
       </c>
       <c r="M120">
         <v>0.12604</v>
@@ -7628,19 +7631,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7657,7 +7660,7 @@
         <v>54</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F121">
         <v>0.19</v>
@@ -7687,16 +7690,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7713,7 +7716,7 @@
         <v>54</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F122">
         <v>0.032</v>
@@ -7728,7 +7731,7 @@
         <v>0.0503</v>
       </c>
       <c r="L122">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="M122">
         <v>0.041</v>
@@ -7743,19 +7746,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7772,7 +7775,7 @@
         <v>54</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F123">
         <v>0.032</v>
@@ -7787,7 +7790,7 @@
         <v>0.0503</v>
       </c>
       <c r="L123">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="M123">
         <v>0.041</v>
@@ -7802,19 +7805,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7831,19 +7834,19 @@
         <v>54</v>
       </c>
       <c r="E124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F124">
         <v>290</v>
       </c>
       <c r="G124">
-        <v>1256.97100231798</v>
+        <v>1249.65806702273</v>
       </c>
       <c r="H124">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I124">
-        <v>9908.4674</v>
+        <v>10785.262</v>
       </c>
       <c r="J124">
         <v>27.0833333333333</v>
@@ -7852,7 +7855,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L124">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="M124">
         <v>1468</v>
@@ -7867,19 +7870,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7896,19 +7899,19 @@
         <v>54</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F125">
         <v>290</v>
       </c>
       <c r="G125">
-        <v>1256.97100231798</v>
+        <v>1249.65806702273</v>
       </c>
       <c r="H125">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I125">
-        <v>9908.4674</v>
+        <v>10785.262</v>
       </c>
       <c r="J125">
         <v>27.0833333333333</v>
@@ -7917,7 +7920,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L125">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="M125">
         <v>1468</v>
@@ -7932,19 +7935,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -7961,19 +7964,19 @@
         <v>54</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F126">
         <v>290</v>
       </c>
       <c r="G126">
-        <v>1256.97100231798</v>
+        <v>1249.65806702273</v>
       </c>
       <c r="H126">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I126">
-        <v>9908.4674</v>
+        <v>10785.262</v>
       </c>
       <c r="J126">
         <v>27.0833333333333</v>
@@ -7982,7 +7985,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L126">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="M126">
         <v>1468</v>
@@ -7997,19 +8000,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8026,19 +8029,19 @@
         <v>54</v>
       </c>
       <c r="E127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F127">
         <v>290</v>
       </c>
       <c r="G127">
-        <v>1256.97100231798</v>
+        <v>1249.65806702273</v>
       </c>
       <c r="H127">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I127">
-        <v>9908.4674</v>
+        <v>10785.262</v>
       </c>
       <c r="J127">
         <v>27.0833333333333</v>
@@ -8047,7 +8050,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L127">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="M127">
         <v>1468</v>
@@ -8062,19 +8065,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8091,7 +8094,7 @@
         <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F128">
         <v>81</v>
@@ -8121,16 +8124,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8147,13 +8150,13 @@
         <v>54</v>
       </c>
       <c r="E129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F129">
         <v>0.01184</v>
       </c>
       <c r="G129">
-        <v>0.0135754479194948</v>
+        <v>0.0135342680036227</v>
       </c>
       <c r="H129">
         <v>0.0348529290240702</v>
@@ -8162,7 +8165,7 @@
         <v>0.02875</v>
       </c>
       <c r="L129">
-        <v>0.009690000000000001</v>
+        <v>0.01012</v>
       </c>
       <c r="M129">
         <v>0.01877</v>
@@ -8177,19 +8180,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8206,13 +8209,13 @@
         <v>54</v>
       </c>
       <c r="E130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F130">
         <v>0.01184</v>
       </c>
       <c r="G130">
-        <v>0.0135754479194948</v>
+        <v>0.0135342680036227</v>
       </c>
       <c r="H130">
         <v>0.0348529290240702</v>
@@ -8221,7 +8224,7 @@
         <v>0.02875</v>
       </c>
       <c r="L130">
-        <v>0.009690000000000001</v>
+        <v>0.01012</v>
       </c>
       <c r="M130">
         <v>0.01877</v>
@@ -8236,19 +8239,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8265,7 +8268,7 @@
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F131">
         <v>5.77</v>
@@ -8280,7 +8283,7 @@
         <v>7.013</v>
       </c>
       <c r="L131">
-        <v>6.085</v>
+        <v>5.79</v>
       </c>
       <c r="M131">
         <v>6.5534</v>
@@ -8295,19 +8298,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8324,7 +8327,7 @@
         <v>54</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F132">
         <v>5.77</v>
@@ -8339,7 +8342,7 @@
         <v>7.013</v>
       </c>
       <c r="L132">
-        <v>6.085</v>
+        <v>5.79</v>
       </c>
       <c r="M132">
         <v>6.5534</v>
@@ -8354,19 +8357,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8383,7 +8386,7 @@
         <v>54</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F133">
         <v>4.146</v>
@@ -8413,16 +8416,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8436,7 +8439,7 @@
         <v>54</v>
       </c>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F134">
         <v>5.8155</v>
@@ -8451,7 +8454,7 @@
         <v>7.072</v>
       </c>
       <c r="L134">
-        <v>6.123</v>
+        <v>5.828</v>
       </c>
       <c r="M134">
         <v>6.6034</v>
@@ -8466,19 +8469,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8492,7 +8495,7 @@
         <v>54</v>
       </c>
       <c r="E135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F135">
         <v>5.8155</v>
@@ -8507,7 +8510,7 @@
         <v>7.072</v>
       </c>
       <c r="L135">
-        <v>6.123</v>
+        <v>5.828</v>
       </c>
       <c r="M135">
         <v>6.6034</v>
@@ -8522,19 +8525,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8548,7 +8551,7 @@
         <v>54</v>
       </c>
       <c r="E136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F136">
         <v>5.87</v>
@@ -8563,7 +8566,7 @@
         <v>7.055</v>
       </c>
       <c r="L136">
-        <v>6.195</v>
+        <v>5.69</v>
       </c>
       <c r="M136">
         <v>6.5934</v>
@@ -8578,19 +8581,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8604,7 +8607,7 @@
         <v>54</v>
       </c>
       <c r="E137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F137">
         <v>5.87</v>
@@ -8619,7 +8622,7 @@
         <v>7.055</v>
       </c>
       <c r="L137">
-        <v>6.195</v>
+        <v>5.69</v>
       </c>
       <c r="M137">
         <v>6.5934</v>
@@ -8634,19 +8637,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8660,7 +8663,7 @@
         <v>54</v>
       </c>
       <c r="E138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F138">
         <v>0.062</v>
@@ -8675,7 +8678,7 @@
         <v>0.1674</v>
       </c>
       <c r="L138">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="M138">
         <v>0.09039999999999999</v>
@@ -8690,19 +8693,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U138" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8716,7 +8719,7 @@
         <v>54</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F139">
         <v>0.062</v>
@@ -8731,7 +8734,7 @@
         <v>0.1674</v>
       </c>
       <c r="L139">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="M139">
         <v>0.09039999999999999</v>
@@ -8746,19 +8749,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8775,7 +8778,7 @@
         <v>55</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F140">
         <v>0.17</v>
@@ -8805,16 +8808,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8831,7 +8834,7 @@
         <v>55</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F141">
         <v>0.035</v>
@@ -8846,7 +8849,7 @@
         <v>0.0701</v>
       </c>
       <c r="L141">
-        <v>0.0375</v>
+        <v>0.036</v>
       </c>
       <c r="M141">
         <v>0.0527</v>
@@ -8861,19 +8864,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8890,7 +8893,7 @@
         <v>55</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F142">
         <v>0.035</v>
@@ -8905,7 +8908,7 @@
         <v>0.0701</v>
       </c>
       <c r="L142">
-        <v>0.0375</v>
+        <v>0.036</v>
       </c>
       <c r="M142">
         <v>0.0527</v>
@@ -8920,19 +8923,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -8949,19 +8952,19 @@
         <v>55</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F143">
         <v>290</v>
       </c>
       <c r="G143">
-        <v>948.565431558534</v>
+        <v>904.265762759132</v>
       </c>
       <c r="H143">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I143">
-        <v>3060.84674</v>
+        <v>3138.5421</v>
       </c>
       <c r="J143">
         <v>20.8333333333333</v>
@@ -8970,7 +8973,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L143">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="M143">
         <v>700.2</v>
@@ -8985,19 +8988,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9014,19 +9017,19 @@
         <v>55</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F144">
         <v>290</v>
       </c>
       <c r="G144">
-        <v>948.565431558534</v>
+        <v>904.265762759132</v>
       </c>
       <c r="H144">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I144">
-        <v>3060.84674</v>
+        <v>3138.5421</v>
       </c>
       <c r="J144">
         <v>20.8333333333333</v>
@@ -9035,7 +9038,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L144">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="M144">
         <v>700.2</v>
@@ -9050,19 +9053,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9079,19 +9082,19 @@
         <v>55</v>
       </c>
       <c r="E145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F145">
         <v>290</v>
       </c>
       <c r="G145">
-        <v>948.565431558534</v>
+        <v>904.265762759132</v>
       </c>
       <c r="H145">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I145">
-        <v>3060.84674</v>
+        <v>3138.5421</v>
       </c>
       <c r="J145">
         <v>20.8333333333333</v>
@@ -9100,7 +9103,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L145">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="M145">
         <v>700.2</v>
@@ -9115,19 +9118,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9144,19 +9147,19 @@
         <v>55</v>
       </c>
       <c r="E146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F146">
         <v>290</v>
       </c>
       <c r="G146">
-        <v>948.565431558534</v>
+        <v>904.265762759132</v>
       </c>
       <c r="H146">
-        <v>16016.6733183562</v>
+        <v>13113.335566209</v>
       </c>
       <c r="I146">
-        <v>3060.84674</v>
+        <v>3138.5421</v>
       </c>
       <c r="J146">
         <v>20.8333333333333</v>
@@ -9165,7 +9168,7 @@
         <v>52.0833333333333</v>
       </c>
       <c r="L146">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="M146">
         <v>700.2</v>
@@ -9180,19 +9183,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9209,7 +9212,7 @@
         <v>55</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F147">
         <v>80.83</v>
@@ -9239,16 +9242,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9265,13 +9268,13 @@
         <v>55</v>
       </c>
       <c r="E148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F148">
         <v>0.0146</v>
       </c>
       <c r="G148">
-        <v>0.0152550508652415</v>
+        <v>0.0152405401989168</v>
       </c>
       <c r="H148">
         <v>0.0348529290240702</v>
@@ -9280,7 +9283,7 @@
         <v>0.02964</v>
       </c>
       <c r="L148">
-        <v>0.008880000000000001</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="M148">
         <v>0.02411</v>
@@ -9295,19 +9298,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9324,13 +9327,13 @@
         <v>55</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F149">
         <v>0.0146</v>
       </c>
       <c r="G149">
-        <v>0.0152550508652415</v>
+        <v>0.0152405401989168</v>
       </c>
       <c r="H149">
         <v>0.0348529290240702</v>
@@ -9339,7 +9342,7 @@
         <v>0.02964</v>
       </c>
       <c r="L149">
-        <v>0.008880000000000001</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="M149">
         <v>0.02411</v>
@@ -9354,19 +9357,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9383,7 +9386,7 @@
         <v>55</v>
       </c>
       <c r="E150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F150">
         <v>5.58</v>
@@ -9398,7 +9401,7 @@
         <v>7.001</v>
       </c>
       <c r="L150">
-        <v>5.63</v>
+        <v>5.47</v>
       </c>
       <c r="M150">
         <v>6.3534</v>
@@ -9413,19 +9416,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9442,7 +9445,7 @@
         <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F151">
         <v>5.58</v>
@@ -9457,7 +9460,7 @@
         <v>7.001</v>
       </c>
       <c r="L151">
-        <v>5.63</v>
+        <v>5.47</v>
       </c>
       <c r="M151">
         <v>6.3534</v>
@@ -9472,19 +9475,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T151" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9501,7 +9504,7 @@
         <v>55</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F152">
         <v>4.146</v>
@@ -9531,16 +9534,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9554,7 +9557,7 @@
         <v>55</v>
       </c>
       <c r="E153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F153">
         <v>5.6475</v>
@@ -9569,7 +9572,7 @@
         <v>7.034</v>
       </c>
       <c r="L153">
-        <v>5.6595</v>
+        <v>5.491</v>
       </c>
       <c r="M153">
         <v>6.3867</v>
@@ -9584,19 +9587,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S153" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9610,7 +9613,7 @@
         <v>55</v>
       </c>
       <c r="E154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F154">
         <v>5.6475</v>
@@ -9625,7 +9628,7 @@
         <v>7.034</v>
       </c>
       <c r="L154">
-        <v>5.6595</v>
+        <v>5.491</v>
       </c>
       <c r="M154">
         <v>6.3867</v>
@@ -9640,19 +9643,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9666,7 +9669,7 @@
         <v>55</v>
       </c>
       <c r="E155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F155">
         <v>5.66</v>
@@ -9681,7 +9684,7 @@
         <v>7.05</v>
       </c>
       <c r="L155">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="M155">
         <v>6.5372</v>
@@ -9696,19 +9699,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U155" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9722,7 +9725,7 @@
         <v>55</v>
       </c>
       <c r="E156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F156">
         <v>5.66</v>
@@ -9737,7 +9740,7 @@
         <v>7.05</v>
       </c>
       <c r="L156">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="M156">
         <v>6.5372</v>
@@ -9752,19 +9755,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U156" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9778,7 +9781,7 @@
         <v>55</v>
       </c>
       <c r="E157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F157">
         <v>0.066</v>
@@ -9793,7 +9796,7 @@
         <v>0.291</v>
       </c>
       <c r="L157">
-        <v>0.0645</v>
+        <v>0.067</v>
       </c>
       <c r="M157">
         <v>0.09436</v>
@@ -9808,19 +9811,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9834,7 +9837,7 @@
         <v>55</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F158">
         <v>0.066</v>
@@ -9849,7 +9852,7 @@
         <v>0.291</v>
       </c>
       <c r="L158">
-        <v>0.0645</v>
+        <v>0.067</v>
       </c>
       <c r="M158">
         <v>0.09436</v>
@@ -9864,19 +9867,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U158" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9893,7 +9896,7 @@
         <v>56</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F159">
         <v>0.169</v>
@@ -9923,16 +9926,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -9949,7 +9952,7 @@
         <v>56</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F160">
         <v>0.032</v>
@@ -9964,7 +9967,7 @@
         <v>0.057</v>
       </c>
       <c r="L160">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="M160">
         <v>0.048</v>
@@ -9979,19 +9982,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10008,7 +10011,7 @@
         <v>56</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F161">
         <v>0.032</v>
@@ -10023,7 +10026,7 @@
         <v>0.057</v>
       </c>
       <c r="L161">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="M161">
         <v>0.048</v>
@@ -10038,19 +10041,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U161" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10067,16 +10070,16 @@
         <v>56</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F162">
         <v>330</v>
       </c>
       <c r="G162">
-        <v>614.1</v>
+        <v>614.08</v>
       </c>
       <c r="H162">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I162">
         <v>2300</v>
@@ -10088,7 +10091,7 @@
         <v>60</v>
       </c>
       <c r="L162">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M162">
         <v>800</v>
@@ -10103,19 +10106,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10132,16 +10135,16 @@
         <v>56</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F163">
         <v>330</v>
       </c>
       <c r="G163">
-        <v>614.1</v>
+        <v>614.08</v>
       </c>
       <c r="H163">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I163">
         <v>2300</v>
@@ -10153,7 +10156,7 @@
         <v>60</v>
       </c>
       <c r="L163">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M163">
         <v>800</v>
@@ -10168,19 +10171,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T163" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U163" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10197,16 +10200,16 @@
         <v>56</v>
       </c>
       <c r="E164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F164">
         <v>330</v>
       </c>
       <c r="G164">
-        <v>614.1</v>
+        <v>614.08</v>
       </c>
       <c r="H164">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I164">
         <v>2300</v>
@@ -10218,7 +10221,7 @@
         <v>60</v>
       </c>
       <c r="L164">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M164">
         <v>800</v>
@@ -10233,19 +10236,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U164" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10262,16 +10265,16 @@
         <v>56</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F165">
         <v>330</v>
       </c>
       <c r="G165">
-        <v>614.1</v>
+        <v>614.08</v>
       </c>
       <c r="H165">
-        <v>6932</v>
+        <v>6931.6</v>
       </c>
       <c r="I165">
         <v>2300</v>
@@ -10283,7 +10286,7 @@
         <v>60</v>
       </c>
       <c r="L165">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M165">
         <v>800</v>
@@ -10298,19 +10301,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10327,7 +10330,7 @@
         <v>56</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F166">
         <v>77</v>
@@ -10357,16 +10360,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10383,13 +10386,13 @@
         <v>56</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F167">
         <v>0.0146</v>
       </c>
       <c r="G167">
-        <v>0.0164582162966661</v>
+        <v>0.0164443231055042</v>
       </c>
       <c r="H167">
         <v>0.0668824230049385</v>
@@ -10413,19 +10416,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U167" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10442,13 +10445,13 @@
         <v>56</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F168">
         <v>0.0146</v>
       </c>
       <c r="G168">
-        <v>0.0164582162966661</v>
+        <v>0.0164443231055042</v>
       </c>
       <c r="H168">
         <v>0.0668824230049385</v>
@@ -10472,19 +10475,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U168" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10501,7 +10504,7 @@
         <v>56</v>
       </c>
       <c r="E169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F169">
         <v>5.45</v>
@@ -10516,7 +10519,7 @@
         <v>6.62</v>
       </c>
       <c r="L169">
-        <v>5.39</v>
+        <v>5.45</v>
       </c>
       <c r="M169">
         <v>6.17</v>
@@ -10531,19 +10534,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U169" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10560,7 +10563,7 @@
         <v>56</v>
       </c>
       <c r="E170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F170">
         <v>5.45</v>
@@ -10575,7 +10578,7 @@
         <v>6.62</v>
       </c>
       <c r="L170">
-        <v>5.39</v>
+        <v>5.45</v>
       </c>
       <c r="M170">
         <v>6.17</v>
@@ -10590,19 +10593,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U170" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10619,7 +10622,7 @@
         <v>56</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F171">
         <v>4.1</v>
@@ -10649,16 +10652,16 @@
         <v>5502257.725</v>
       </c>
       <c r="Q171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T171" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10672,7 +10675,7 @@
         <v>56</v>
       </c>
       <c r="E172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F172">
         <v>5.472</v>
@@ -10687,7 +10690,7 @@
         <v>6.69</v>
       </c>
       <c r="L172">
-        <v>5.447</v>
+        <v>5.472</v>
       </c>
       <c r="M172">
         <v>6.216</v>
@@ -10702,19 +10705,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U172" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10728,7 +10731,7 @@
         <v>56</v>
       </c>
       <c r="E173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F173">
         <v>5.472</v>
@@ -10743,7 +10746,7 @@
         <v>6.69</v>
       </c>
       <c r="L173">
-        <v>5.447</v>
+        <v>5.472</v>
       </c>
       <c r="M173">
         <v>6.216</v>
@@ -10758,19 +10761,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S173" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T173" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U173" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10784,7 +10787,7 @@
         <v>56</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F174">
         <v>5.61</v>
@@ -10799,7 +10802,7 @@
         <v>6.66</v>
       </c>
       <c r="L174">
-        <v>5.55</v>
+        <v>5.61</v>
       </c>
       <c r="M174">
         <v>6.37</v>
@@ -10814,19 +10817,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U174" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10840,7 +10843,7 @@
         <v>56</v>
       </c>
       <c r="E175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F175">
         <v>5.61</v>
@@ -10855,7 +10858,7 @@
         <v>6.66</v>
       </c>
       <c r="L175">
-        <v>5.55</v>
+        <v>5.61</v>
       </c>
       <c r="M175">
         <v>6.37</v>
@@ -10870,19 +10873,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S175" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U175" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -10896,7 +10899,7 @@
         <v>56</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F176">
         <v>0.067</v>
@@ -10911,7 +10914,7 @@
         <v>0.114</v>
       </c>
       <c r="L176">
-        <v>0.064</v>
+        <v>0.0645</v>
       </c>
       <c r="M176">
         <v>0.08</v>
@@ -10926,19 +10929,19 @@
         <v>5502257.725</v>
       </c>
       <c r="Q176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U176" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -10952,7 +10955,7 @@
         <v>56</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F177">
         <v>0.067</v>
@@ -10967,7 +10970,7 @@
         <v>0.114</v>
       </c>
       <c r="L177">
-        <v>0.064</v>
+        <v>0.0645</v>
       </c>
       <c r="M177">
         <v>0.08</v>
@@ -10982,19 +10985,1137 @@
         <v>5502257.725</v>
       </c>
       <c r="Q177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T177" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U177" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" t="s">
+        <v>57</v>
+      </c>
+      <c r="E178" t="s">
+        <v>58</v>
+      </c>
+      <c r="F178">
+        <v>0.155</v>
+      </c>
+      <c r="G178">
+        <v>0.1598</v>
+      </c>
+      <c r="H178">
+        <v>0.17</v>
+      </c>
+      <c r="I178">
+        <v>0.17</v>
+      </c>
+      <c r="L178">
+        <v>0.155</v>
+      </c>
+      <c r="M178">
+        <v>0.16965</v>
+      </c>
+      <c r="N178">
+        <v>0.17</v>
+      </c>
+      <c r="O178">
+        <v>1792826.893</v>
+      </c>
+      <c r="P178">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>59</v>
+      </c>
+      <c r="R178" t="s">
+        <v>60</v>
+      </c>
+      <c r="S178" t="s">
+        <v>61</v>
+      </c>
+      <c r="T178" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" t="s">
+        <v>57</v>
+      </c>
+      <c r="E179" t="s">
+        <v>58</v>
+      </c>
+      <c r="F179">
+        <v>0.033</v>
+      </c>
+      <c r="G179">
+        <v>0.0351034482758621</v>
+      </c>
+      <c r="H179">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I179">
+        <v>0.057</v>
+      </c>
+      <c r="L179">
+        <v>0.032</v>
+      </c>
+      <c r="M179">
+        <v>0.04664</v>
+      </c>
+      <c r="N179">
+        <v>0.056</v>
+      </c>
+      <c r="O179">
+        <v>1792826.893</v>
+      </c>
+      <c r="P179">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>59</v>
+      </c>
+      <c r="R179" t="s">
+        <v>60</v>
+      </c>
+      <c r="S179" t="s">
+        <v>61</v>
+      </c>
+      <c r="T179" t="s">
+        <v>62</v>
+      </c>
+      <c r="U179" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" t="s">
+        <v>57</v>
+      </c>
+      <c r="E180" t="s">
+        <v>58</v>
+      </c>
+      <c r="F180">
+        <v>0.033</v>
+      </c>
+      <c r="G180">
+        <v>0.0351034482758621</v>
+      </c>
+      <c r="H180">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I180">
+        <v>0.057</v>
+      </c>
+      <c r="L180">
+        <v>0.032</v>
+      </c>
+      <c r="M180">
+        <v>0.04664</v>
+      </c>
+      <c r="N180">
+        <v>0.056</v>
+      </c>
+      <c r="O180">
+        <v>1792826.893</v>
+      </c>
+      <c r="P180">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>59</v>
+      </c>
+      <c r="R180" t="s">
+        <v>60</v>
+      </c>
+      <c r="S180" t="s">
+        <v>61</v>
+      </c>
+      <c r="T180" t="s">
+        <v>62</v>
+      </c>
+      <c r="U180" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181" t="s">
+        <v>57</v>
+      </c>
+      <c r="E181" t="s">
+        <v>58</v>
+      </c>
+      <c r="F181">
+        <v>351.4</v>
+      </c>
+      <c r="G181">
+        <v>580.510344827586</v>
+      </c>
+      <c r="H181">
+        <v>6931.6</v>
+      </c>
+      <c r="I181">
+        <v>2145.6</v>
+      </c>
+      <c r="J181">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="K181">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L181">
+        <v>371.8</v>
+      </c>
+      <c r="M181">
+        <v>754.5599999999999</v>
+      </c>
+      <c r="N181">
+        <v>1377.72</v>
+      </c>
+      <c r="O181">
+        <v>1792826.893</v>
+      </c>
+      <c r="P181">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>59</v>
+      </c>
+      <c r="R181" t="s">
+        <v>60</v>
+      </c>
+      <c r="S181" t="s">
+        <v>61</v>
+      </c>
+      <c r="T181" t="s">
+        <v>62</v>
+      </c>
+      <c r="U181" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" t="s">
+        <v>42</v>
+      </c>
+      <c r="D182" t="s">
+        <v>57</v>
+      </c>
+      <c r="E182" t="s">
+        <v>58</v>
+      </c>
+      <c r="F182">
+        <v>351.4</v>
+      </c>
+      <c r="G182">
+        <v>580.510344827586</v>
+      </c>
+      <c r="H182">
+        <v>6931.6</v>
+      </c>
+      <c r="I182">
+        <v>2145.6</v>
+      </c>
+      <c r="J182">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="K182">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L182">
+        <v>371.8</v>
+      </c>
+      <c r="M182">
+        <v>754.5599999999999</v>
+      </c>
+      <c r="N182">
+        <v>1377.72</v>
+      </c>
+      <c r="O182">
+        <v>1792826.893</v>
+      </c>
+      <c r="P182">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>59</v>
+      </c>
+      <c r="R182" t="s">
+        <v>60</v>
+      </c>
+      <c r="S182" t="s">
+        <v>61</v>
+      </c>
+      <c r="T182" t="s">
+        <v>62</v>
+      </c>
+      <c r="U182" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" t="s">
+        <v>44</v>
+      </c>
+      <c r="D183" t="s">
+        <v>57</v>
+      </c>
+      <c r="E183" t="s">
+        <v>58</v>
+      </c>
+      <c r="F183">
+        <v>351.4</v>
+      </c>
+      <c r="G183">
+        <v>580.510344827586</v>
+      </c>
+      <c r="H183">
+        <v>6931.6</v>
+      </c>
+      <c r="I183">
+        <v>2145.6</v>
+      </c>
+      <c r="J183">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="K183">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L183">
+        <v>371.8</v>
+      </c>
+      <c r="M183">
+        <v>754.5599999999999</v>
+      </c>
+      <c r="N183">
+        <v>1377.72</v>
+      </c>
+      <c r="O183">
+        <v>1792826.893</v>
+      </c>
+      <c r="P183">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>59</v>
+      </c>
+      <c r="R183" t="s">
+        <v>60</v>
+      </c>
+      <c r="S183" t="s">
+        <v>61</v>
+      </c>
+      <c r="T183" t="s">
+        <v>62</v>
+      </c>
+      <c r="U183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" t="s">
+        <v>44</v>
+      </c>
+      <c r="D184" t="s">
+        <v>57</v>
+      </c>
+      <c r="E184" t="s">
+        <v>58</v>
+      </c>
+      <c r="F184">
+        <v>351.4</v>
+      </c>
+      <c r="G184">
+        <v>580.510344827586</v>
+      </c>
+      <c r="H184">
+        <v>6931.6</v>
+      </c>
+      <c r="I184">
+        <v>2145.6</v>
+      </c>
+      <c r="J184">
+        <v>24.1379310344828</v>
+      </c>
+      <c r="K184">
+        <v>60.3448275862069</v>
+      </c>
+      <c r="L184">
+        <v>371.8</v>
+      </c>
+      <c r="M184">
+        <v>754.5599999999999</v>
+      </c>
+      <c r="N184">
+        <v>1377.72</v>
+      </c>
+      <c r="O184">
+        <v>1792826.893</v>
+      </c>
+      <c r="P184">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>59</v>
+      </c>
+      <c r="R184" t="s">
+        <v>60</v>
+      </c>
+      <c r="S184" t="s">
+        <v>61</v>
+      </c>
+      <c r="T184" t="s">
+        <v>62</v>
+      </c>
+      <c r="U184" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" t="s">
+        <v>57</v>
+      </c>
+      <c r="E185" t="s">
+        <v>58</v>
+      </c>
+      <c r="F185">
+        <v>77</v>
+      </c>
+      <c r="G185">
+        <v>78.672</v>
+      </c>
+      <c r="H185">
+        <v>86</v>
+      </c>
+      <c r="I185">
+        <v>86</v>
+      </c>
+      <c r="L185">
+        <v>77</v>
+      </c>
+      <c r="M185">
+        <v>83.2</v>
+      </c>
+      <c r="N185">
+        <v>86</v>
+      </c>
+      <c r="O185">
+        <v>1792826.893</v>
+      </c>
+      <c r="P185">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>59</v>
+      </c>
+      <c r="R185" t="s">
+        <v>60</v>
+      </c>
+      <c r="S185" t="s">
+        <v>61</v>
+      </c>
+      <c r="T185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186" t="s">
+        <v>45</v>
+      </c>
+      <c r="D186" t="s">
+        <v>57</v>
+      </c>
+      <c r="E186" t="s">
+        <v>58</v>
+      </c>
+      <c r="F186">
+        <v>0.01293</v>
+      </c>
+      <c r="G186">
+        <v>0.0154399618573435</v>
+      </c>
+      <c r="H186">
+        <v>0.0668824230049385</v>
+      </c>
+      <c r="I186">
+        <v>0.03062</v>
+      </c>
+      <c r="L186">
+        <v>0.01002</v>
+      </c>
+      <c r="M186">
+        <v>0.02249</v>
+      </c>
+      <c r="N186">
+        <v>0.02844</v>
+      </c>
+      <c r="O186">
+        <v>1792826.893</v>
+      </c>
+      <c r="P186">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>59</v>
+      </c>
+      <c r="R186" t="s">
+        <v>60</v>
+      </c>
+      <c r="S186" t="s">
+        <v>61</v>
+      </c>
+      <c r="T186" t="s">
+        <v>62</v>
+      </c>
+      <c r="U186" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" t="s">
+        <v>45</v>
+      </c>
+      <c r="D187" t="s">
+        <v>57</v>
+      </c>
+      <c r="E187" t="s">
+        <v>58</v>
+      </c>
+      <c r="F187">
+        <v>0.01293</v>
+      </c>
+      <c r="G187">
+        <v>0.0154399618573435</v>
+      </c>
+      <c r="H187">
+        <v>0.0668824230049385</v>
+      </c>
+      <c r="I187">
+        <v>0.03062</v>
+      </c>
+      <c r="L187">
+        <v>0.01002</v>
+      </c>
+      <c r="M187">
+        <v>0.02249</v>
+      </c>
+      <c r="N187">
+        <v>0.02844</v>
+      </c>
+      <c r="O187">
+        <v>1792826.893</v>
+      </c>
+      <c r="P187">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>59</v>
+      </c>
+      <c r="R187" t="s">
+        <v>60</v>
+      </c>
+      <c r="S187" t="s">
+        <v>61</v>
+      </c>
+      <c r="T187" t="s">
+        <v>62</v>
+      </c>
+      <c r="U187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" t="s">
+        <v>43</v>
+      </c>
+      <c r="D188" t="s">
+        <v>57</v>
+      </c>
+      <c r="E188" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188">
+        <v>5.48</v>
+      </c>
+      <c r="G188">
+        <v>5.15689655172414</v>
+      </c>
+      <c r="H188">
+        <v>7.46</v>
+      </c>
+      <c r="I188">
+        <v>6.454</v>
+      </c>
+      <c r="L188">
+        <v>5.45</v>
+      </c>
+      <c r="M188">
+        <v>5.9664</v>
+      </c>
+      <c r="N188">
+        <v>6.2832</v>
+      </c>
+      <c r="O188">
+        <v>1792826.893</v>
+      </c>
+      <c r="P188">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>59</v>
+      </c>
+      <c r="R188" t="s">
+        <v>60</v>
+      </c>
+      <c r="S188" t="s">
+        <v>61</v>
+      </c>
+      <c r="T188" t="s">
+        <v>62</v>
+      </c>
+      <c r="U188" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189" t="s">
+        <v>57</v>
+      </c>
+      <c r="E189" t="s">
+        <v>58</v>
+      </c>
+      <c r="F189">
+        <v>5.48</v>
+      </c>
+      <c r="G189">
+        <v>5.15689655172414</v>
+      </c>
+      <c r="H189">
+        <v>7.46</v>
+      </c>
+      <c r="I189">
+        <v>6.454</v>
+      </c>
+      <c r="L189">
+        <v>5.45</v>
+      </c>
+      <c r="M189">
+        <v>5.9664</v>
+      </c>
+      <c r="N189">
+        <v>6.2832</v>
+      </c>
+      <c r="O189">
+        <v>1792826.893</v>
+      </c>
+      <c r="P189">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>59</v>
+      </c>
+      <c r="R189" t="s">
+        <v>60</v>
+      </c>
+      <c r="S189" t="s">
+        <v>61</v>
+      </c>
+      <c r="T189" t="s">
+        <v>62</v>
+      </c>
+      <c r="U189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>57</v>
+      </c>
+      <c r="E190" t="s">
+        <v>58</v>
+      </c>
+      <c r="F190">
+        <v>4.1</v>
+      </c>
+      <c r="G190">
+        <v>4.0616</v>
+      </c>
+      <c r="H190">
+        <v>4.146</v>
+      </c>
+      <c r="I190">
+        <v>4.146</v>
+      </c>
+      <c r="L190">
+        <v>4.1</v>
+      </c>
+      <c r="M190">
+        <v>4.1299</v>
+      </c>
+      <c r="N190">
+        <v>4.146</v>
+      </c>
+      <c r="O190">
+        <v>1792826.893</v>
+      </c>
+      <c r="P190">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>59</v>
+      </c>
+      <c r="R190" t="s">
+        <v>60</v>
+      </c>
+      <c r="S190" t="s">
+        <v>61</v>
+      </c>
+      <c r="T190" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" t="s">
+        <v>57</v>
+      </c>
+      <c r="E191" t="s">
+        <v>58</v>
+      </c>
+      <c r="F191">
+        <v>5.513</v>
+      </c>
+      <c r="G191">
+        <v>5.20954310344828</v>
+      </c>
+      <c r="H191">
+        <v>7.527</v>
+      </c>
+      <c r="I191">
+        <v>6.5112</v>
+      </c>
+      <c r="L191">
+        <v>5.472</v>
+      </c>
+      <c r="M191">
+        <v>6.02492</v>
+      </c>
+      <c r="N191">
+        <v>6.33536</v>
+      </c>
+      <c r="O191">
+        <v>1792826.893</v>
+      </c>
+      <c r="P191">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>59</v>
+      </c>
+      <c r="R191" t="s">
+        <v>60</v>
+      </c>
+      <c r="S191" t="s">
+        <v>61</v>
+      </c>
+      <c r="T191" t="s">
+        <v>62</v>
+      </c>
+      <c r="U191" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>57</v>
+      </c>
+      <c r="E192" t="s">
+        <v>58</v>
+      </c>
+      <c r="F192">
+        <v>5.513</v>
+      </c>
+      <c r="G192">
+        <v>5.20954310344828</v>
+      </c>
+      <c r="H192">
+        <v>7.527</v>
+      </c>
+      <c r="I192">
+        <v>6.5112</v>
+      </c>
+      <c r="L192">
+        <v>5.472</v>
+      </c>
+      <c r="M192">
+        <v>6.02492</v>
+      </c>
+      <c r="N192">
+        <v>6.33536</v>
+      </c>
+      <c r="O192">
+        <v>1792826.893</v>
+      </c>
+      <c r="P192">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>59</v>
+      </c>
+      <c r="R192" t="s">
+        <v>60</v>
+      </c>
+      <c r="S192" t="s">
+        <v>61</v>
+      </c>
+      <c r="T192" t="s">
+        <v>62</v>
+      </c>
+      <c r="U192" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="D193" t="s">
+        <v>57</v>
+      </c>
+      <c r="E193" t="s">
+        <v>58</v>
+      </c>
+      <c r="F193">
+        <v>5.69</v>
+      </c>
+      <c r="G193">
+        <v>5.49672413793103</v>
+      </c>
+      <c r="H193">
+        <v>7.1</v>
+      </c>
+      <c r="I193">
+        <v>6.584</v>
+      </c>
+      <c r="L193">
+        <v>5.66</v>
+      </c>
+      <c r="M193">
+        <v>6.3592</v>
+      </c>
+      <c r="N193">
+        <v>6.523</v>
+      </c>
+      <c r="O193">
+        <v>1792826.893</v>
+      </c>
+      <c r="P193">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>59</v>
+      </c>
+      <c r="R193" t="s">
+        <v>60</v>
+      </c>
+      <c r="S193" t="s">
+        <v>61</v>
+      </c>
+      <c r="T193" t="s">
+        <v>62</v>
+      </c>
+      <c r="U193" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>36</v>
+      </c>
+      <c r="D194" t="s">
+        <v>57</v>
+      </c>
+      <c r="E194" t="s">
+        <v>58</v>
+      </c>
+      <c r="F194">
+        <v>5.69</v>
+      </c>
+      <c r="G194">
+        <v>5.49672413793103</v>
+      </c>
+      <c r="H194">
+        <v>7.1</v>
+      </c>
+      <c r="I194">
+        <v>6.584</v>
+      </c>
+      <c r="L194">
+        <v>5.66</v>
+      </c>
+      <c r="M194">
+        <v>6.3592</v>
+      </c>
+      <c r="N194">
+        <v>6.523</v>
+      </c>
+      <c r="O194">
+        <v>1792826.893</v>
+      </c>
+      <c r="P194">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>59</v>
+      </c>
+      <c r="R194" t="s">
+        <v>60</v>
+      </c>
+      <c r="S194" t="s">
+        <v>61</v>
+      </c>
+      <c r="T194" t="s">
+        <v>62</v>
+      </c>
+      <c r="U194" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
+        <v>57</v>
+      </c>
+      <c r="E195" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195">
+        <v>0.067</v>
+      </c>
+      <c r="G195">
+        <v>0.07312068965517241</v>
+      </c>
+      <c r="H195">
+        <v>0.318</v>
+      </c>
+      <c r="I195">
+        <v>0.1218</v>
+      </c>
+      <c r="L195">
+        <v>0.059</v>
+      </c>
+      <c r="M195">
+        <v>0.0864</v>
+      </c>
+      <c r="N195">
+        <v>0.1119</v>
+      </c>
+      <c r="O195">
+        <v>1792826.893</v>
+      </c>
+      <c r="P195">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>59</v>
+      </c>
+      <c r="R195" t="s">
+        <v>60</v>
+      </c>
+      <c r="S195" t="s">
+        <v>61</v>
+      </c>
+      <c r="T195" t="s">
+        <v>62</v>
+      </c>
+      <c r="U195" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E196" t="s">
+        <v>58</v>
+      </c>
+      <c r="F196">
+        <v>0.067</v>
+      </c>
+      <c r="G196">
+        <v>0.07312068965517241</v>
+      </c>
+      <c r="H196">
+        <v>0.318</v>
+      </c>
+      <c r="I196">
+        <v>0.1218</v>
+      </c>
+      <c r="L196">
+        <v>0.059</v>
+      </c>
+      <c r="M196">
+        <v>0.0864</v>
+      </c>
+      <c r="N196">
+        <v>0.1119</v>
+      </c>
+      <c r="O196">
+        <v>1792826.893</v>
+      </c>
+      <c r="P196">
+        <v>5502257.725</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>59</v>
+      </c>
+      <c r="R196" t="s">
+        <v>60</v>
+      </c>
+      <c r="S196" t="s">
+        <v>61</v>
+      </c>
+      <c r="T196" t="s">
+        <v>62</v>
+      </c>
+      <c r="U196" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
